--- a/Estimation_Records/reordering-25%/1MB 25% reorder.xlsx
+++ b/Estimation_Records/reordering-25%/1MB 25% reorder.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\reordering-25%\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11996981-A67E-4638-A102-CF741596D14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A8464-8ED4-45E2-AB27-60D6B01C6C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FB1716-E2CA-4168-85FE-B6CF7CE72CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4895,8 +4892,8 @@
       <xdr:rowOff>125056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>412376</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>125057</xdr:rowOff>
     </xdr:to>
@@ -4964,1254 +4961,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>0.65044999999999931</v>
-          </cell>
-          <cell r="C8">
-            <v>635.56500000000005</v>
-          </cell>
-          <cell r="G8">
-            <v>0.66232300000000066</v>
-          </cell>
-          <cell r="H8">
-            <v>11.874000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.66232300000000066</v>
-          </cell>
-          <cell r="C9">
-            <v>11.874000000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>0.69076799999999849</v>
-          </cell>
-          <cell r="H9">
-            <v>28.445</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.69076799999999849</v>
-          </cell>
-          <cell r="C10">
-            <v>28.445</v>
-          </cell>
-          <cell r="G10">
-            <v>0.72073199999999815</v>
-          </cell>
-          <cell r="H10">
-            <v>29.963999999999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.72073199999999815</v>
-          </cell>
-          <cell r="C11">
-            <v>29.963999999999999</v>
-          </cell>
-          <cell r="G11">
-            <v>0.76074099999999589</v>
-          </cell>
-          <cell r="H11">
-            <v>40.008000000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.76074099999999589</v>
-          </cell>
-          <cell r="C12">
-            <v>40.008000000000003</v>
-          </cell>
-          <cell r="G12">
-            <v>0.77245299999999872</v>
-          </cell>
-          <cell r="H12">
-            <v>11.712</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.77245299999999872</v>
-          </cell>
-          <cell r="C13">
-            <v>11.712</v>
-          </cell>
-          <cell r="G13">
-            <v>0.79639099999999985</v>
-          </cell>
-          <cell r="H13">
-            <v>23.937999999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.79639099999999985</v>
-          </cell>
-          <cell r="C14">
-            <v>23.937999999999999</v>
-          </cell>
-          <cell r="G14">
-            <v>0.82670399999999944</v>
-          </cell>
-          <cell r="H14">
-            <v>30.312999999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.82670399999999944</v>
-          </cell>
-          <cell r="C15">
-            <v>30.312999999999999</v>
-          </cell>
-          <cell r="G15">
-            <v>0.85547700000000049</v>
-          </cell>
-          <cell r="H15">
-            <v>28.773</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.85547700000000049</v>
-          </cell>
-          <cell r="C16">
-            <v>28.773</v>
-          </cell>
-          <cell r="G16">
-            <v>0.86488699999999596</v>
-          </cell>
-          <cell r="H16">
-            <v>9.4109999999999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.86488699999999596</v>
-          </cell>
-          <cell r="C17">
-            <v>9.4109999999999996</v>
-          </cell>
-          <cell r="G17">
-            <v>0.88745399999999819</v>
-          </cell>
-          <cell r="H17">
-            <v>22.567</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.88745399999999819</v>
-          </cell>
-          <cell r="C18">
-            <v>22.567</v>
-          </cell>
-          <cell r="G18">
-            <v>0.91630500000000126</v>
-          </cell>
-          <cell r="H18">
-            <v>28.85</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.91630500000000126</v>
-          </cell>
-          <cell r="C19">
-            <v>28.85</v>
-          </cell>
-          <cell r="G19">
-            <v>0.92745899999999892</v>
-          </cell>
-          <cell r="H19">
-            <v>11.154</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.92745899999999892</v>
-          </cell>
-          <cell r="C20">
-            <v>11.154</v>
-          </cell>
-          <cell r="G20">
-            <v>0.94611400000000145</v>
-          </cell>
-          <cell r="H20">
-            <v>18.655000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.94611400000000145</v>
-          </cell>
-          <cell r="C21">
-            <v>18.655000000000001</v>
-          </cell>
-          <cell r="G21">
-            <v>0.95945999999999998</v>
-          </cell>
-          <cell r="H21">
-            <v>13.347</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.95945999999999998</v>
-          </cell>
-          <cell r="C22">
-            <v>13.347</v>
-          </cell>
-          <cell r="G22">
-            <v>0.97582099999999627</v>
-          </cell>
-          <cell r="H22">
-            <v>16.36</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.97582099999999627</v>
-          </cell>
-          <cell r="C23">
-            <v>16.36</v>
-          </cell>
-          <cell r="G23">
-            <v>0.99140599999999779</v>
-          </cell>
-          <cell r="H23">
-            <v>15.586</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.99140599999999779</v>
-          </cell>
-          <cell r="C24">
-            <v>15.586</v>
-          </cell>
-          <cell r="G24">
-            <v>1.0079709999999977</v>
-          </cell>
-          <cell r="H24">
-            <v>16.564</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.0079709999999977</v>
-          </cell>
-          <cell r="C25">
-            <v>16.564</v>
-          </cell>
-          <cell r="G25">
-            <v>1.0292460000000005</v>
-          </cell>
-          <cell r="H25">
-            <v>21.274999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>1.0292460000000005</v>
-          </cell>
-          <cell r="C26">
-            <v>21.274999999999999</v>
-          </cell>
-          <cell r="G26">
-            <v>1.0403120000000001</v>
-          </cell>
-          <cell r="H26">
-            <v>11.066000000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.0403120000000001</v>
-          </cell>
-          <cell r="C27">
-            <v>11.066000000000001</v>
-          </cell>
-          <cell r="G27">
-            <v>1.0535659999999964</v>
-          </cell>
-          <cell r="H27">
-            <v>13.255000000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>1.0535659999999964</v>
-          </cell>
-          <cell r="C28">
-            <v>13.255000000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>1.0742139999999978</v>
-          </cell>
-          <cell r="H28">
-            <v>20.648</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.0742139999999978</v>
-          </cell>
-          <cell r="C29">
-            <v>20.648</v>
-          </cell>
-          <cell r="G29">
-            <v>1.1025390000000002</v>
-          </cell>
-          <cell r="H29">
-            <v>28.324000000000002</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>1.1025390000000002</v>
-          </cell>
-          <cell r="C30">
-            <v>28.324000000000002</v>
-          </cell>
-          <cell r="G30">
-            <v>1.1306709999999995</v>
-          </cell>
-          <cell r="H30">
-            <v>28.132999999999999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1.1306709999999995</v>
-          </cell>
-          <cell r="C31">
-            <v>28.132999999999999</v>
-          </cell>
-          <cell r="G31">
-            <v>1.1571969999999965</v>
-          </cell>
-          <cell r="H31">
-            <v>26.524999999999999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.1571969999999965</v>
-          </cell>
-          <cell r="C32">
-            <v>26.524999999999999</v>
-          </cell>
-          <cell r="G32">
-            <v>1.1719099999999969</v>
-          </cell>
-          <cell r="H32">
-            <v>14.712999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>1.1719099999999969</v>
-          </cell>
-          <cell r="C33">
-            <v>14.712999999999999</v>
-          </cell>
-          <cell r="G33">
-            <v>1.193920999999996</v>
-          </cell>
-          <cell r="H33">
-            <v>22.010999999999999</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1.193920999999996</v>
-          </cell>
-          <cell r="C34">
-            <v>22.010999999999999</v>
-          </cell>
-          <cell r="G34">
-            <v>1.2156880000000001</v>
-          </cell>
-          <cell r="H34">
-            <v>21.768000000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>1.2156880000000001</v>
-          </cell>
-          <cell r="C35">
-            <v>21.768000000000001</v>
-          </cell>
-          <cell r="G35">
-            <v>1.2460149999999999</v>
-          </cell>
-          <cell r="H35">
-            <v>30.326000000000001</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1.2460149999999999</v>
-          </cell>
-          <cell r="C36">
-            <v>30.326000000000001</v>
-          </cell>
-          <cell r="G36">
-            <v>1.2569609999999969</v>
-          </cell>
-          <cell r="H36">
-            <v>10.946</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>1.2569609999999969</v>
-          </cell>
-          <cell r="C37">
-            <v>10.946</v>
-          </cell>
-          <cell r="G37">
-            <v>1.2760929999999959</v>
-          </cell>
-          <cell r="H37">
-            <v>19.132000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>1.2760929999999959</v>
-          </cell>
-          <cell r="C38">
-            <v>19.132000000000001</v>
-          </cell>
-          <cell r="G38">
-            <v>1.2867570000000015</v>
-          </cell>
-          <cell r="H38">
-            <v>10.664</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>1.2867570000000015</v>
-          </cell>
-          <cell r="C39">
-            <v>10.664</v>
-          </cell>
-          <cell r="G39">
-            <v>1.3060210000000012</v>
-          </cell>
-          <cell r="H39">
-            <v>19.265000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>1.3060210000000012</v>
-          </cell>
-          <cell r="C40">
-            <v>19.265000000000001</v>
-          </cell>
-          <cell r="G40">
-            <v>1.3172719999999956</v>
-          </cell>
-          <cell r="H40">
-            <v>11.250999999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>1.3172719999999956</v>
-          </cell>
-          <cell r="C41">
-            <v>11.250999999999999</v>
-          </cell>
-          <cell r="G41">
-            <v>1.3356679999999983</v>
-          </cell>
-          <cell r="H41">
-            <v>18.395</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>1.3356679999999983</v>
-          </cell>
-          <cell r="C42">
-            <v>18.395</v>
-          </cell>
-          <cell r="G42">
-            <v>1.3494489999999999</v>
-          </cell>
-          <cell r="H42">
-            <v>13.782</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>1.3494489999999999</v>
-          </cell>
-          <cell r="C43">
-            <v>13.782</v>
-          </cell>
-          <cell r="G43">
-            <v>1.3656209999999973</v>
-          </cell>
-          <cell r="H43">
-            <v>16.170999999999999</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>1.3656209999999973</v>
-          </cell>
-          <cell r="C44">
-            <v>16.170999999999999</v>
-          </cell>
-          <cell r="G44">
-            <v>1.3803619999999981</v>
-          </cell>
-          <cell r="H44">
-            <v>14.742000000000001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>1.3803619999999981</v>
-          </cell>
-          <cell r="C45">
-            <v>14.742000000000001</v>
-          </cell>
-          <cell r="G45">
-            <v>1.4147359999999978</v>
-          </cell>
-          <cell r="H45">
-            <v>34.372999999999998</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46">
-            <v>1.4294409999999971</v>
-          </cell>
-          <cell r="H46">
-            <v>14.706</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="G47">
-            <v>1.4564479999999946</v>
-          </cell>
-          <cell r="H47">
-            <v>27.006</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48">
-            <v>1.4751830000000012</v>
-          </cell>
-          <cell r="H48">
-            <v>18.734999999999999</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49">
-            <v>1.4974319999999963</v>
-          </cell>
-          <cell r="H49">
-            <v>22.248999999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>1.5108689999999996</v>
-          </cell>
-          <cell r="H50">
-            <v>13.436999999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51">
-            <v>1.5233239999999952</v>
-          </cell>
-          <cell r="H51">
-            <v>12.455</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>1.5396339999999995</v>
-          </cell>
-          <cell r="H52">
-            <v>16.309999999999999</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>1.5622219999999984</v>
-          </cell>
-          <cell r="H53">
-            <v>22.588000000000001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>1.5837409999999963</v>
-          </cell>
-          <cell r="H54">
-            <v>21.52</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>1.6011200000000017</v>
-          </cell>
-          <cell r="H55">
-            <v>17.379000000000001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>1.6456219999999959</v>
-          </cell>
-          <cell r="H56">
-            <v>44.502000000000002</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>0.65330499999999603</v>
-          </cell>
-          <cell r="C79">
-            <v>12.375</v>
-          </cell>
-          <cell r="G79">
-            <v>0.68213499999999527</v>
-          </cell>
-          <cell r="H79">
-            <v>28.83</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>0.68213499999999527</v>
-          </cell>
-          <cell r="C80">
-            <v>28.83</v>
-          </cell>
-          <cell r="G80">
-            <v>0.7127969999999948</v>
-          </cell>
-          <cell r="H80">
-            <v>30.663</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>0.7127969999999948</v>
-          </cell>
-          <cell r="C81">
-            <v>30.663</v>
-          </cell>
-          <cell r="G81">
-            <v>0.74315099999999745</v>
-          </cell>
-          <cell r="H81">
-            <v>30.353999999999999</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>0.74315099999999745</v>
-          </cell>
-          <cell r="C82">
-            <v>30.353999999999999</v>
-          </cell>
-          <cell r="G82">
-            <v>0.764091999999998</v>
-          </cell>
-          <cell r="H82">
-            <v>20.940999999999999</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>0.764091999999998</v>
-          </cell>
-          <cell r="C83">
-            <v>20.940999999999999</v>
-          </cell>
-          <cell r="G83">
-            <v>0.7880309999999966</v>
-          </cell>
-          <cell r="H83">
-            <v>23.937999999999999</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>0.7880309999999966</v>
-          </cell>
-          <cell r="C84">
-            <v>23.937999999999999</v>
-          </cell>
-          <cell r="G84">
-            <v>0.81806199999999762</v>
-          </cell>
-          <cell r="H84">
-            <v>30.030999999999999</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>0.81806199999999762</v>
-          </cell>
-          <cell r="C85">
-            <v>30.030999999999999</v>
-          </cell>
-          <cell r="G85">
-            <v>0.84783799999999587</v>
-          </cell>
-          <cell r="H85">
-            <v>29.777000000000001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>0.84783799999999587</v>
-          </cell>
-          <cell r="C86">
-            <v>29.777000000000001</v>
-          </cell>
-          <cell r="G86">
-            <v>0.85674900000000065</v>
-          </cell>
-          <cell r="H86">
-            <v>8.91</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>0.85674900000000065</v>
-          </cell>
-          <cell r="C87">
-            <v>8.91</v>
-          </cell>
-          <cell r="G87">
-            <v>0.8779830000000004</v>
-          </cell>
-          <cell r="H87">
-            <v>21.234000000000002</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>0.8779830000000004</v>
-          </cell>
-          <cell r="C88">
-            <v>21.234000000000002</v>
-          </cell>
-          <cell r="G88">
-            <v>0.9076559999999958</v>
-          </cell>
-          <cell r="H88">
-            <v>29.673999999999999</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>0.9076559999999958</v>
-          </cell>
-          <cell r="C89">
-            <v>29.673999999999999</v>
-          </cell>
-          <cell r="G89">
-            <v>0.91939899999999852</v>
-          </cell>
-          <cell r="H89">
-            <v>11.743</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>0.91939899999999852</v>
-          </cell>
-          <cell r="C90">
-            <v>11.743</v>
-          </cell>
-          <cell r="G90">
-            <v>0.93773300000000148</v>
-          </cell>
-          <cell r="H90">
-            <v>18.334</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>0.93773300000000148</v>
-          </cell>
-          <cell r="C91">
-            <v>18.334</v>
-          </cell>
-          <cell r="G91">
-            <v>0.95169599999999832</v>
-          </cell>
-          <cell r="H91">
-            <v>13.962999999999999</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>0.95169599999999832</v>
-          </cell>
-          <cell r="C92">
-            <v>13.962999999999999</v>
-          </cell>
-          <cell r="G92">
-            <v>0.9676589999999976</v>
-          </cell>
-          <cell r="H92">
-            <v>15.962999999999999</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>0.9676589999999976</v>
-          </cell>
-          <cell r="C93">
-            <v>15.962999999999999</v>
-          </cell>
-          <cell r="G93">
-            <v>0.98147699999999816</v>
-          </cell>
-          <cell r="H93">
-            <v>13.817</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>0.98147699999999816</v>
-          </cell>
-          <cell r="C94">
-            <v>13.817</v>
-          </cell>
-          <cell r="G94">
-            <v>0.99919200000000075</v>
-          </cell>
-          <cell r="H94">
-            <v>17.716000000000001</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>0.99919200000000075</v>
-          </cell>
-          <cell r="C95">
-            <v>17.716000000000001</v>
-          </cell>
-          <cell r="G95">
-            <v>1.0131709999999998</v>
-          </cell>
-          <cell r="H95">
-            <v>13.978999999999999</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>1.0131709999999998</v>
-          </cell>
-          <cell r="C96">
-            <v>13.978999999999999</v>
-          </cell>
-          <cell r="G96">
-            <v>1.0299210000000016</v>
-          </cell>
-          <cell r="H96">
-            <v>16.748999999999999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>1.0299210000000016</v>
-          </cell>
-          <cell r="C97">
-            <v>16.748999999999999</v>
-          </cell>
-          <cell r="G97">
-            <v>1.0441840000000013</v>
-          </cell>
-          <cell r="H97">
-            <v>14.263999999999999</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>1.0441840000000013</v>
-          </cell>
-          <cell r="C98">
-            <v>14.263999999999999</v>
-          </cell>
-          <cell r="G98">
-            <v>1.0623489999999975</v>
-          </cell>
-          <cell r="H98">
-            <v>18.164000000000001</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>1.0623489999999975</v>
-          </cell>
-          <cell r="C99">
-            <v>18.164000000000001</v>
-          </cell>
-          <cell r="G99">
-            <v>1.0750489999999999</v>
-          </cell>
-          <cell r="H99">
-            <v>12.701000000000001</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>1.0750489999999999</v>
-          </cell>
-          <cell r="C100">
-            <v>12.701000000000001</v>
-          </cell>
-          <cell r="G100">
-            <v>1.1069600000000008</v>
-          </cell>
-          <cell r="H100">
-            <v>31.91</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>1.1069600000000008</v>
-          </cell>
-          <cell r="C101">
-            <v>31.91</v>
-          </cell>
-          <cell r="G101">
-            <v>1.1460969999999975</v>
-          </cell>
-          <cell r="H101">
-            <v>39.137999999999998</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>1.1460969999999975</v>
-          </cell>
-          <cell r="C102">
-            <v>39.137999999999998</v>
-          </cell>
-          <cell r="G102">
-            <v>1.1579729999999984</v>
-          </cell>
-          <cell r="H102">
-            <v>11.875</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>1.1579729999999984</v>
-          </cell>
-          <cell r="C103">
-            <v>11.875</v>
-          </cell>
-          <cell r="G103">
-            <v>1.1848290000000006</v>
-          </cell>
-          <cell r="H103">
-            <v>26.856000000000002</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>1.1848290000000006</v>
-          </cell>
-          <cell r="C104">
-            <v>26.856000000000002</v>
-          </cell>
-          <cell r="G104">
-            <v>1.207848999999996</v>
-          </cell>
-          <cell r="H104">
-            <v>23.02</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>1.207848999999996</v>
-          </cell>
-          <cell r="C105">
-            <v>23.02</v>
-          </cell>
-          <cell r="G105">
-            <v>1.237836999999999</v>
-          </cell>
-          <cell r="H105">
-            <v>29.988</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>1.237836999999999</v>
-          </cell>
-          <cell r="C106">
-            <v>29.988</v>
-          </cell>
-          <cell r="G106">
-            <v>1.2475759999999951</v>
-          </cell>
-          <cell r="H106">
-            <v>9.7390000000000008</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>1.2475759999999951</v>
-          </cell>
-          <cell r="C107">
-            <v>9.7390000000000008</v>
-          </cell>
-          <cell r="G107">
-            <v>1.2676519999999982</v>
-          </cell>
-          <cell r="H107">
-            <v>20.077000000000002</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>1.2676519999999982</v>
-          </cell>
-          <cell r="C108">
-            <v>20.077000000000002</v>
-          </cell>
-          <cell r="G108">
-            <v>1.2786919999999995</v>
-          </cell>
-          <cell r="H108">
-            <v>11.04</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>1.2786919999999995</v>
-          </cell>
-          <cell r="C109">
-            <v>11.04</v>
-          </cell>
-          <cell r="G109">
-            <v>1.2976570000000009</v>
-          </cell>
-          <cell r="H109">
-            <v>18.963999999999999</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>1.2976570000000009</v>
-          </cell>
-          <cell r="C110">
-            <v>18.963999999999999</v>
-          </cell>
-          <cell r="G110">
-            <v>1.3094899999999967</v>
-          </cell>
-          <cell r="H110">
-            <v>11.834</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>1.3094899999999967</v>
-          </cell>
-          <cell r="C111">
-            <v>11.834</v>
-          </cell>
-          <cell r="G111">
-            <v>1.3275080000000017</v>
-          </cell>
-          <cell r="H111">
-            <v>18.018000000000001</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>1.3275080000000017</v>
-          </cell>
-          <cell r="C112">
-            <v>18.018000000000001</v>
-          </cell>
-          <cell r="G112">
-            <v>1.3412119999999987</v>
-          </cell>
-          <cell r="H112">
-            <v>13.704000000000001</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>1.3412119999999987</v>
-          </cell>
-          <cell r="C113">
-            <v>13.704000000000001</v>
-          </cell>
-          <cell r="G113">
-            <v>1.357408999999997</v>
-          </cell>
-          <cell r="H113">
-            <v>16.196999999999999</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>1.357408999999997</v>
-          </cell>
-          <cell r="C114">
-            <v>16.196999999999999</v>
-          </cell>
-          <cell r="G114">
-            <v>1.3723899999999958</v>
-          </cell>
-          <cell r="H114">
-            <v>14.981</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>1.3723899999999958</v>
-          </cell>
-          <cell r="C115">
-            <v>14.981</v>
-          </cell>
-          <cell r="G115">
-            <v>1.4024560000000008</v>
-          </cell>
-          <cell r="H115">
-            <v>30.065000000000001</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="G116">
-            <v>1.4192449999999965</v>
-          </cell>
-          <cell r="H116">
-            <v>16.789000000000001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>1.4473160000000007</v>
-          </cell>
-          <cell r="H117">
-            <v>28.071999999999999</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="G118">
-            <v>1.4659649999999971</v>
-          </cell>
-          <cell r="H118">
-            <v>18.648</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="G119">
-            <v>1.482057999999995</v>
-          </cell>
-          <cell r="H119">
-            <v>16.093</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="G120">
-            <v>1.4981219999999951</v>
-          </cell>
-          <cell r="H120">
-            <v>16.065000000000001</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="G121">
-            <v>1.512989999999995</v>
-          </cell>
-          <cell r="H121">
-            <v>14.868</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="G122">
-            <v>1.5295470000000009</v>
-          </cell>
-          <cell r="H122">
-            <v>16.556999999999999</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="G123">
-            <v>1.5531349999999975</v>
-          </cell>
-          <cell r="H123">
-            <v>23.588000000000001</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="G124">
-            <v>1.5758069999999975</v>
-          </cell>
-          <cell r="H124">
-            <v>22.670999999999999</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="G125">
-            <v>1.5920409999999947</v>
-          </cell>
-          <cell r="H125">
-            <v>16.234000000000002</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="G126">
-            <v>1.6375819999999948</v>
-          </cell>
-          <cell r="H126">
-            <v>45.540999999999997</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="G127">
-            <v>1.669353000000001</v>
-          </cell>
-          <cell r="H127">
-            <v>31.771000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6513,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4503D8-754D-4810-94D7-285D6C9141D2}">
   <dimension ref="A3:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Estimation_Records/reordering-25%/1MB 25% reorder.xlsx
+++ b/Estimation_Records/reordering-25%/1MB 25% reorder.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\reordering-25%\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\reordering-25%\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A8464-8ED4-45E2-AB27-60D6B01C6C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF6F53-B899-42EA-BB97-9BF895807B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6FB1716-E2CA-4168-85FE-B6CF7CE72CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -58,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t>25% REORDER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -976,7 +990,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$G$111</c:f>
+              <c:f>Sheet1!$F$8:$F$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -1297,7 +1311,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$8:$H$111</c:f>
+              <c:f>Sheet1!$G$8:$G$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -1707,7 +1721,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1745,7 +1759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -1830,7 +1844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1868,7 +1882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -1910,7 +1924,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1947,7 +1961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2033,7 +2047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2788,7 +2802,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$132:$G$235</c:f>
+              <c:f>Sheet1!$F$132:$F$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -3109,7 +3123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$132:$H$235</c:f>
+              <c:f>Sheet1!$G$132:$G$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -3519,7 +3533,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3557,7 +3571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -3642,7 +3656,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3680,7 +3694,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -3722,7 +3736,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3759,13 +3773,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4886,16 +4900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1204856</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>125056</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>896</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>125057</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>606462</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4924,16 +4938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>253701</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5260,19 +5274,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4503D8-754D-4810-94D7-285D6C9141D2}">
-  <dimension ref="A3:M239"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="17.21875" customWidth="1"/>
@@ -5280,7 +5296,12 @@
     <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5290,16 +5311,19 @@
       <c r="D3">
         <v>12.625332999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5309,17 +5333,17 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13.043286999999999</v>
       </c>
@@ -5330,18 +5354,18 @@
       <c r="C8">
         <v>398.21800000000002</v>
       </c>
+      <c r="E8">
+        <v>13.074719</v>
+      </c>
       <c r="F8">
-        <v>13.074719</v>
+        <f>$E8-$D$3</f>
+        <v>0.44938600000000051</v>
       </c>
       <c r="G8">
-        <f>$F8-$D$3</f>
-        <v>0.44938600000000051</v>
-      </c>
-      <c r="H8">
         <v>31.431999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13.074719</v>
       </c>
@@ -5352,18 +5376,18 @@
       <c r="C9">
         <v>31.431999999999999</v>
       </c>
+      <c r="E9">
+        <v>13.104784</v>
+      </c>
       <c r="F9">
-        <v>13.104784</v>
+        <f>$E9-$D$3</f>
+        <v>0.47945100000000096</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G72" si="1">$F9-$D$3</f>
-        <v>0.47945100000000096</v>
-      </c>
-      <c r="H9">
         <v>30.064</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13.104784</v>
       </c>
@@ -5374,18 +5398,18 @@
       <c r="C10">
         <v>30.064</v>
       </c>
+      <c r="E10">
+        <v>13.118418</v>
+      </c>
       <c r="F10">
-        <v>13.118418</v>
+        <f>$E10-$D$3</f>
+        <v>0.49308500000000066</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.49308500000000066</v>
-      </c>
-      <c r="H10">
         <v>13.635</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13.118418</v>
       </c>
@@ -5396,18 +5420,18 @@
       <c r="C11">
         <v>13.635</v>
       </c>
+      <c r="E11">
+        <v>13.133435</v>
+      </c>
       <c r="F11">
-        <v>13.133435</v>
+        <f>$E11-$D$3</f>
+        <v>0.50810200000000094</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.50810200000000094</v>
-      </c>
-      <c r="H11">
         <v>15.016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13.133435</v>
       </c>
@@ -5418,18 +5442,18 @@
       <c r="C12">
         <v>15.016</v>
       </c>
+      <c r="E12">
+        <v>13.152174</v>
+      </c>
       <c r="F12">
-        <v>13.152174</v>
+        <f>$E12-$D$3</f>
+        <v>0.526841000000001</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.526841000000001</v>
-      </c>
-      <c r="H12">
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13.152174</v>
       </c>
@@ -5440,18 +5464,18 @@
       <c r="C13">
         <v>18.739999999999998</v>
       </c>
+      <c r="E13">
+        <v>13.167259</v>
+      </c>
       <c r="F13">
-        <v>13.167259</v>
+        <f>$E13-$D$3</f>
+        <v>0.54192600000000013</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.54192600000000013</v>
-      </c>
-      <c r="H13">
         <v>15.085000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13.167259</v>
       </c>
@@ -5462,18 +5486,18 @@
       <c r="C14">
         <v>15.085000000000001</v>
       </c>
+      <c r="E14">
+        <v>13.180387</v>
+      </c>
       <c r="F14">
-        <v>13.180387</v>
+        <f>$E14-$D$3</f>
+        <v>0.55505400000000016</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.55505400000000016</v>
-      </c>
-      <c r="H14">
         <v>13.127000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13.180387</v>
       </c>
@@ -5484,18 +5508,18 @@
       <c r="C15">
         <v>13.127000000000001</v>
       </c>
+      <c r="E15">
+        <v>13.198725</v>
+      </c>
       <c r="F15">
-        <v>13.198725</v>
+        <f>$E15-$D$3</f>
+        <v>0.57339200000000012</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.57339200000000012</v>
-      </c>
-      <c r="H15">
         <v>18.338999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13.198725</v>
       </c>
@@ -5506,18 +5530,18 @@
       <c r="C16">
         <v>18.338999999999999</v>
       </c>
+      <c r="E16">
+        <v>13.215244</v>
+      </c>
       <c r="F16">
-        <v>13.215244</v>
+        <f>$E16-$D$3</f>
+        <v>0.58991100000000074</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.58991100000000074</v>
-      </c>
-      <c r="H16">
         <v>16.518000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13.215244</v>
       </c>
@@ -5528,18 +5552,18 @@
       <c r="C17">
         <v>16.518000000000001</v>
       </c>
+      <c r="E17">
+        <v>13.229829000000001</v>
+      </c>
       <c r="F17">
-        <v>13.229829000000001</v>
+        <f>$E17-$D$3</f>
+        <v>0.60449600000000103</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.60449600000000103</v>
-      </c>
-      <c r="H17">
         <v>14.585000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13.229829000000001</v>
       </c>
@@ -5550,18 +5574,18 @@
       <c r="C18">
         <v>14.585000000000001</v>
       </c>
+      <c r="E18">
+        <v>13.244065000000001</v>
+      </c>
       <c r="F18">
-        <v>13.244065000000001</v>
+        <f>$E18-$D$3</f>
+        <v>0.61873200000000139</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.61873200000000139</v>
-      </c>
-      <c r="H18">
         <v>14.237</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13.244065000000001</v>
       </c>
@@ -5572,18 +5596,18 @@
       <c r="C19">
         <v>14.237</v>
       </c>
+      <c r="E19">
+        <v>13.257719</v>
+      </c>
       <c r="F19">
-        <v>13.257719</v>
+        <f>$E19-$D$3</f>
+        <v>0.63238600000000034</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0.63238600000000034</v>
-      </c>
-      <c r="H19">
         <v>13.653</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13.257134000000001</v>
       </c>
@@ -5594,18 +5618,18 @@
       <c r="C20">
         <v>13.069000000000001</v>
       </c>
+      <c r="E20">
+        <v>13.273885</v>
+      </c>
       <c r="F20">
-        <v>13.273885</v>
+        <f>$E20-$D$3</f>
+        <v>0.64855200000000046</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.64855200000000046</v>
-      </c>
-      <c r="H20">
         <v>16.167000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13.270670000000001</v>
       </c>
@@ -5616,18 +5640,18 @@
       <c r="C21">
         <v>13.536</v>
       </c>
+      <c r="E21">
+        <v>13.289952</v>
+      </c>
       <c r="F21">
-        <v>13.289952</v>
+        <f>$E21-$D$3</f>
+        <v>0.66461900000000007</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.66461900000000007</v>
-      </c>
-      <c r="H21">
         <v>16.067</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13.289952</v>
       </c>
@@ -5638,18 +5662,18 @@
       <c r="C22">
         <v>19.282</v>
       </c>
+      <c r="E22">
+        <v>13.305815000000001</v>
+      </c>
       <c r="F22">
-        <v>13.305815000000001</v>
+        <f>$E22-$D$3</f>
+        <v>0.68048200000000136</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.68048200000000136</v>
-      </c>
-      <c r="H22">
         <v>15.863</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13.305815000000001</v>
       </c>
@@ -5660,18 +5684,18 @@
       <c r="C23">
         <v>15.863</v>
       </c>
+      <c r="E23">
+        <v>13.324775000000001</v>
+      </c>
       <c r="F23">
-        <v>13.324775000000001</v>
+        <f>$E23-$D$3</f>
+        <v>0.69944200000000123</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.69944200000000123</v>
-      </c>
-      <c r="H23">
         <v>18.96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13.322951</v>
       </c>
@@ -5682,18 +5706,18 @@
       <c r="C24">
         <v>17.135000000000002</v>
       </c>
+      <c r="E24">
+        <v>13.357017000000001</v>
+      </c>
       <c r="F24">
-        <v>13.357017000000001</v>
+        <f>$E24-$D$3</f>
+        <v>0.73168400000000133</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.73168400000000133</v>
-      </c>
-      <c r="H24">
         <v>32.241</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13.342907</v>
       </c>
@@ -5704,18 +5728,18 @@
       <c r="C25">
         <v>19.957000000000001</v>
       </c>
+      <c r="E25">
+        <v>13.370938000000001</v>
+      </c>
       <c r="F25">
-        <v>13.370938000000001</v>
+        <f>$E25-$D$3</f>
+        <v>0.74560500000000118</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0.74560500000000118</v>
-      </c>
-      <c r="H25">
         <v>13.920999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13.357017000000001</v>
       </c>
@@ -5726,18 +5750,18 @@
       <c r="C26">
         <v>14.109</v>
       </c>
+      <c r="E26">
+        <v>13.387444</v>
+      </c>
       <c r="F26">
-        <v>13.387444</v>
+        <f>$E26-$D$3</f>
+        <v>0.76211100000000087</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0.76211100000000087</v>
-      </c>
-      <c r="H26">
         <v>16.507000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13.370938000000001</v>
       </c>
@@ -5748,18 +5772,18 @@
       <c r="C27">
         <v>13.920999999999999</v>
       </c>
+      <c r="E27">
+        <v>13.40094</v>
+      </c>
       <c r="F27">
-        <v>13.40094</v>
+        <f>$E27-$D$3</f>
+        <v>0.77560700000000082</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0.77560700000000082</v>
-      </c>
-      <c r="H27">
         <v>13.496</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13.387444</v>
       </c>
@@ -5770,18 +5794,18 @@
       <c r="C28">
         <v>16.507000000000001</v>
       </c>
+      <c r="E28">
+        <v>13.415179</v>
+      </c>
       <c r="F28">
-        <v>13.415179</v>
+        <f>$E28-$D$3</f>
+        <v>0.78984600000000071</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0.78984600000000071</v>
-      </c>
-      <c r="H28">
         <v>14.238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13.40094</v>
       </c>
@@ -5792,18 +5816,18 @@
       <c r="C29">
         <v>13.496</v>
       </c>
+      <c r="E29">
+        <v>13.430232999999999</v>
+      </c>
       <c r="F29">
-        <v>13.430232999999999</v>
+        <f>$E29-$D$3</f>
+        <v>0.80489999999999995</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0.80489999999999995</v>
-      </c>
-      <c r="H29">
         <v>15.054</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13.415179</v>
       </c>
@@ -5814,18 +5838,18 @@
       <c r="C30">
         <v>14.238</v>
       </c>
+      <c r="E30">
+        <v>13.446403999999999</v>
+      </c>
       <c r="F30">
-        <v>13.446403999999999</v>
+        <f>$E30-$D$3</f>
+        <v>0.82107099999999988</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0.82107099999999988</v>
-      </c>
-      <c r="H30">
         <v>16.172000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13.430232999999999</v>
       </c>
@@ -5836,18 +5860,18 @@
       <c r="C31">
         <v>15.054</v>
       </c>
+      <c r="E31">
+        <v>13.459764</v>
+      </c>
       <c r="F31">
-        <v>13.459764</v>
+        <f>$E31-$D$3</f>
+        <v>0.83443100000000037</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0.83443100000000037</v>
-      </c>
-      <c r="H31">
         <v>13.36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13.446403999999999</v>
       </c>
@@ -5858,18 +5882,18 @@
       <c r="C32">
         <v>16.172000000000001</v>
       </c>
+      <c r="E32">
+        <v>13.476319999999999</v>
+      </c>
       <c r="F32">
-        <v>13.476319999999999</v>
+        <f>$E32-$D$3</f>
+        <v>0.85098699999999994</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0.85098699999999994</v>
-      </c>
-      <c r="H32">
         <v>16.555</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13.459764</v>
       </c>
@@ -5880,18 +5904,18 @@
       <c r="C33">
         <v>13.36</v>
       </c>
+      <c r="E33">
+        <v>13.495903</v>
+      </c>
       <c r="F33">
-        <v>13.495903</v>
+        <f>$E33-$D$3</f>
+        <v>0.87057000000000073</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0.87057000000000073</v>
-      </c>
-      <c r="H33">
         <v>19.584</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13.476319999999999</v>
       </c>
@@ -5902,18 +5926,18 @@
       <c r="C34">
         <v>16.555</v>
       </c>
+      <c r="E34">
+        <v>13.524459999999999</v>
+      </c>
       <c r="F34">
-        <v>13.524459999999999</v>
+        <f>$E34-$D$3</f>
+        <v>0.89912700000000001</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0.89912700000000001</v>
-      </c>
-      <c r="H34">
         <v>28.556000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13.495903</v>
       </c>
@@ -5924,18 +5948,18 @@
       <c r="C35">
         <v>19.584</v>
       </c>
+      <c r="E35">
+        <v>13.538932000000001</v>
+      </c>
       <c r="F35">
-        <v>13.538932000000001</v>
+        <f>$E35-$D$3</f>
+        <v>0.91359900000000138</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0.91359900000000138</v>
-      </c>
-      <c r="H35">
         <v>14.472</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13.522501999999999</v>
       </c>
@@ -5946,18 +5970,18 @@
       <c r="C36">
         <v>26.599</v>
       </c>
+      <c r="E36">
+        <v>13.555403999999999</v>
+      </c>
       <c r="F36">
-        <v>13.555403999999999</v>
+        <f>$E36-$D$3</f>
+        <v>0.93007099999999987</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0.93007099999999987</v>
-      </c>
-      <c r="H36">
         <v>16.472999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13.538932000000001</v>
       </c>
@@ -5968,18 +5992,18 @@
       <c r="C37">
         <v>16.428999999999998</v>
       </c>
+      <c r="E37">
+        <v>13.57948</v>
+      </c>
       <c r="F37">
-        <v>13.57948</v>
+        <f>$E37-$D$3</f>
+        <v>0.95414700000000074</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0.95414700000000074</v>
-      </c>
-      <c r="H37">
         <v>24.076000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13.555403999999999</v>
       </c>
@@ -5990,18 +6014,18 @@
       <c r="C38">
         <v>16.472999999999999</v>
       </c>
+      <c r="E38">
+        <v>13.594018999999999</v>
+      </c>
       <c r="F38">
-        <v>13.594018999999999</v>
+        <f>$E38-$D$3</f>
+        <v>0.96868599999999994</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>0.96868599999999994</v>
-      </c>
-      <c r="H38">
         <v>14.539</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13.57948</v>
       </c>
@@ -6012,18 +6036,18 @@
       <c r="C39">
         <v>24.076000000000001</v>
       </c>
+      <c r="E39">
+        <v>13.624136</v>
+      </c>
       <c r="F39">
-        <v>13.624136</v>
+        <f>$E39-$D$3</f>
+        <v>0.99880300000000055</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>0.99880300000000055</v>
-      </c>
-      <c r="H39">
         <v>30.117000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13.594018999999999</v>
       </c>
@@ -6034,18 +6058,18 @@
       <c r="C40">
         <v>14.539</v>
       </c>
+      <c r="E40">
+        <v>13.654776</v>
+      </c>
       <c r="F40">
-        <v>13.654776</v>
+        <f>$E40-$D$3</f>
+        <v>1.0294430000000006</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>1.0294430000000006</v>
-      </c>
-      <c r="H40">
         <v>30.638999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13.624136</v>
       </c>
@@ -6056,18 +6080,18 @@
       <c r="C41">
         <v>30.117000000000001</v>
       </c>
+      <c r="E41">
+        <v>13.684240000000001</v>
+      </c>
       <c r="F41">
-        <v>13.684240000000001</v>
+        <f>$E41-$D$3</f>
+        <v>1.0589070000000014</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>1.0589070000000014</v>
-      </c>
-      <c r="H41">
         <v>29.463999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13.654776</v>
       </c>
@@ -6078,18 +6102,18 @@
       <c r="C42">
         <v>30.638999999999999</v>
       </c>
+      <c r="E42">
+        <v>13.724344</v>
+      </c>
       <c r="F42">
-        <v>13.724344</v>
+        <f>$E42-$D$3</f>
+        <v>1.0990110000000008</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>1.0990110000000008</v>
-      </c>
-      <c r="H42">
         <v>40.103999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13.684240000000001</v>
       </c>
@@ -6100,18 +6124,18 @@
       <c r="C43">
         <v>29.463999999999999</v>
       </c>
+      <c r="E43">
+        <v>13.742668999999999</v>
+      </c>
       <c r="F43">
-        <v>13.742668999999999</v>
+        <f>$E43-$D$3</f>
+        <v>1.1173359999999999</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>1.1173359999999999</v>
-      </c>
-      <c r="H43">
         <v>18.324999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13.722125999999999</v>
       </c>
@@ -6122,18 +6146,18 @@
       <c r="C44">
         <v>37.887</v>
       </c>
+      <c r="E44">
+        <v>13.759524000000001</v>
+      </c>
       <c r="F44">
-        <v>13.759524000000001</v>
+        <f>$E44-$D$3</f>
+        <v>1.1341910000000013</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>1.1341910000000013</v>
-      </c>
-      <c r="H44">
         <v>16.855</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13.73953</v>
       </c>
@@ -6144,18 +6168,18 @@
       <c r="C45">
         <v>17.402999999999999</v>
       </c>
+      <c r="E45">
+        <v>13.774003</v>
+      </c>
       <c r="F45">
-        <v>13.774003</v>
+        <f>$E45-$D$3</f>
+        <v>1.148670000000001</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>1.148670000000001</v>
-      </c>
-      <c r="H45">
         <v>14.478999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13.759524000000001</v>
       </c>
@@ -6166,18 +6190,18 @@
       <c r="C46">
         <v>19.994</v>
       </c>
+      <c r="E46">
+        <v>13.800663999999999</v>
+      </c>
       <c r="F46">
-        <v>13.800663999999999</v>
+        <f>$E46-$D$3</f>
+        <v>1.1753309999999999</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>1.1753309999999999</v>
-      </c>
-      <c r="H46">
         <v>26.661999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13.774003</v>
       </c>
@@ -6188,18 +6212,18 @@
       <c r="C47">
         <v>14.478999999999999</v>
       </c>
+      <c r="E47">
+        <v>13.824052</v>
+      </c>
       <c r="F47">
-        <v>13.824052</v>
+        <f>$E47-$D$3</f>
+        <v>1.1987190000000005</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>1.1987190000000005</v>
-      </c>
-      <c r="H47">
         <v>23.387</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13.800663999999999</v>
       </c>
@@ -6210,18 +6234,18 @@
       <c r="C48">
         <v>26.661999999999999</v>
       </c>
+      <c r="E48">
+        <v>13.834669</v>
+      </c>
       <c r="F48">
-        <v>13.834669</v>
+        <f>$E48-$D$3</f>
+        <v>1.2093360000000004</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>1.2093360000000004</v>
-      </c>
-      <c r="H48">
         <v>10.617000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13.824052</v>
       </c>
@@ -6232,18 +6256,18 @@
       <c r="C49">
         <v>23.387</v>
       </c>
+      <c r="E49">
+        <v>13.853149</v>
+      </c>
       <c r="F49">
-        <v>13.853149</v>
+        <f>$E49-$D$3</f>
+        <v>1.2278160000000007</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>1.2278160000000007</v>
-      </c>
-      <c r="H49">
         <v>18.481000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13.834669</v>
       </c>
@@ -6254,18 +6278,18 @@
       <c r="C50">
         <v>10.617000000000001</v>
       </c>
+      <c r="E50">
+        <v>13.868015</v>
+      </c>
       <c r="F50">
-        <v>13.868015</v>
+        <f>$E50-$D$3</f>
+        <v>1.2426820000000003</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>1.2426820000000003</v>
-      </c>
-      <c r="H50">
         <v>14.865</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13.853149</v>
       </c>
@@ -6276,18 +6300,18 @@
       <c r="C51">
         <v>18.481000000000002</v>
       </c>
+      <c r="E51">
+        <v>13.881567</v>
+      </c>
       <c r="F51">
-        <v>13.881567</v>
+        <f>$E51-$D$3</f>
+        <v>1.256234000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>1.256234000000001</v>
-      </c>
-      <c r="H51">
         <v>13.552</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13.865303000000001</v>
       </c>
@@ -6298,18 +6322,18 @@
       <c r="C52">
         <v>12.153</v>
       </c>
+      <c r="E52">
+        <v>13.904413999999999</v>
+      </c>
       <c r="F52">
-        <v>13.904413999999999</v>
+        <f>$E52-$D$3</f>
+        <v>1.2790809999999997</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>1.2790809999999997</v>
-      </c>
-      <c r="H52">
         <v>22.847999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13.881567</v>
       </c>
@@ -6320,18 +6344,18 @@
       <c r="C53">
         <v>16.263999999999999</v>
       </c>
+      <c r="E53">
+        <v>13.940453</v>
+      </c>
       <c r="F53">
-        <v>13.940453</v>
+        <f>$E53-$D$3</f>
+        <v>1.3151200000000003</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>1.3151200000000003</v>
-      </c>
-      <c r="H53">
         <v>36.037999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13.904413999999999</v>
       </c>
@@ -6342,18 +6366,18 @@
       <c r="C54">
         <v>22.847999999999999</v>
       </c>
+      <c r="E54">
+        <v>13.967040000000001</v>
+      </c>
       <c r="F54">
-        <v>13.967040000000001</v>
+        <f>$E54-$D$3</f>
+        <v>1.3417070000000013</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>1.3417070000000013</v>
-      </c>
-      <c r="H54">
         <v>26.587</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13.940453</v>
       </c>
@@ -6364,18 +6388,18 @@
       <c r="C55">
         <v>36.037999999999997</v>
       </c>
+      <c r="E55">
+        <v>13.981771999999999</v>
+      </c>
       <c r="F55">
-        <v>13.981771999999999</v>
+        <f>$E55-$D$3</f>
+        <v>1.356439</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>1.356439</v>
-      </c>
-      <c r="H55">
         <v>14.733000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13.967040000000001</v>
       </c>
@@ -6386,18 +6410,18 @@
       <c r="C56">
         <v>26.587</v>
       </c>
+      <c r="E56">
+        <v>13.996978</v>
+      </c>
       <c r="F56">
-        <v>13.996978</v>
+        <f>$E56-$D$3</f>
+        <v>1.3716450000000009</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>1.3716450000000009</v>
-      </c>
-      <c r="H56">
         <v>15.206</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13.981771999999999</v>
       </c>
@@ -6408,18 +6432,18 @@
       <c r="C57">
         <v>14.733000000000001</v>
       </c>
+      <c r="E57">
+        <v>14.014714</v>
+      </c>
       <c r="F57">
-        <v>14.014714</v>
+        <f>$E57-$D$3</f>
+        <v>1.3893810000000002</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>1.3893810000000002</v>
-      </c>
-      <c r="H57">
         <v>17.734999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13.996978</v>
       </c>
@@ -6430,18 +6454,18 @@
       <c r="C58">
         <v>15.206</v>
       </c>
+      <c r="E58">
+        <v>14.031635</v>
+      </c>
       <c r="F58">
-        <v>14.031635</v>
+        <f>$E58-$D$3</f>
+        <v>1.4063020000000002</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>1.4063020000000002</v>
-      </c>
-      <c r="H58">
         <v>16.922000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14.014714</v>
       </c>
@@ -6452,18 +6476,18 @@
       <c r="C59">
         <v>17.734999999999999</v>
       </c>
+      <c r="E59">
+        <v>14.046999</v>
+      </c>
       <c r="F59">
-        <v>14.046999</v>
+        <f>$E59-$D$3</f>
+        <v>1.4216660000000001</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>1.4216660000000001</v>
-      </c>
-      <c r="H59">
         <v>15.364000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14.031635</v>
       </c>
@@ -6474,18 +6498,18 @@
       <c r="C60">
         <v>16.922000000000001</v>
       </c>
+      <c r="E60">
+        <v>14.078279</v>
+      </c>
       <c r="F60">
-        <v>14.078279</v>
+        <f>$E60-$D$3</f>
+        <v>1.4529460000000007</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>1.4529460000000007</v>
-      </c>
-      <c r="H60">
         <v>31.279</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14.046999</v>
       </c>
@@ -6496,18 +6520,18 @@
       <c r="C61">
         <v>15.364000000000001</v>
       </c>
+      <c r="E61">
+        <v>14.10604</v>
+      </c>
       <c r="F61">
-        <v>14.10604</v>
+        <f>$E61-$D$3</f>
+        <v>1.4807070000000007</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>1.4807070000000007</v>
-      </c>
-      <c r="H61">
         <v>27.762</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14.074496999999999</v>
       </c>
@@ -6518,18 +6542,18 @@
       <c r="C62">
         <v>27.498000000000001</v>
       </c>
+      <c r="E62">
+        <v>14.126759</v>
+      </c>
       <c r="F62">
-        <v>14.126759</v>
+        <f>$E62-$D$3</f>
+        <v>1.5014260000000004</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>1.5014260000000004</v>
-      </c>
-      <c r="H62">
         <v>20.718</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14.084875</v>
       </c>
@@ -6540,18 +6564,18 @@
       <c r="C63">
         <v>10.377000000000001</v>
       </c>
+      <c r="E63">
+        <v>14.156445</v>
+      </c>
       <c r="F63">
-        <v>14.156445</v>
+        <f>$E63-$D$3</f>
+        <v>1.5311120000000003</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>1.5311120000000003</v>
-      </c>
-      <c r="H63">
         <v>29.687000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14.10604</v>
       </c>
@@ -6562,14 +6586,14 @@
       <c r="C64">
         <v>21.166</v>
       </c>
+      <c r="E64">
+        <v>14.185312</v>
+      </c>
       <c r="F64">
-        <v>14.185312</v>
+        <f>$E64-$D$3</f>
+        <v>1.5599790000000002</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>1.5599790000000002</v>
-      </c>
-      <c r="H64">
         <v>28.867000000000001</v>
       </c>
     </row>
@@ -6584,14 +6608,14 @@
       <c r="C65">
         <v>20.718</v>
       </c>
+      <c r="E65">
+        <v>14.203783</v>
+      </c>
       <c r="F65">
-        <v>14.203783</v>
+        <f>$E65-$D$3</f>
+        <v>1.5784500000000001</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>1.5784500000000001</v>
-      </c>
-      <c r="H65">
         <v>18.471</v>
       </c>
     </row>
@@ -6606,14 +6630,14 @@
       <c r="C66">
         <v>29.617999999999999</v>
       </c>
+      <c r="E66">
+        <v>14.218026999999999</v>
+      </c>
       <c r="F66">
-        <v>14.218026999999999</v>
+        <f>$E66-$D$3</f>
+        <v>1.5926939999999998</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>1.5926939999999998</v>
-      </c>
-      <c r="H66">
         <v>14.243</v>
       </c>
     </row>
@@ -6628,14 +6652,14 @@
       <c r="C67">
         <v>28.936</v>
       </c>
+      <c r="E67">
+        <v>14.232144</v>
+      </c>
       <c r="F67">
-        <v>14.232144</v>
+        <f>$E67-$D$3</f>
+        <v>1.6068110000000004</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
-        <v>1.6068110000000004</v>
-      </c>
-      <c r="H67">
         <v>14.117000000000001</v>
       </c>
     </row>
@@ -6650,14 +6674,14 @@
       <c r="C68">
         <v>18.471</v>
       </c>
+      <c r="E68">
+        <v>14.245775999999999</v>
+      </c>
       <c r="F68">
-        <v>14.245775999999999</v>
+        <f>$E68-$D$3</f>
+        <v>1.6204429999999999</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
-        <v>1.6204429999999999</v>
-      </c>
-      <c r="H68">
         <v>13.632999999999999</v>
       </c>
     </row>
@@ -6672,14 +6696,14 @@
       <c r="C69">
         <v>14.243</v>
       </c>
+      <c r="E69">
+        <v>14.260102</v>
+      </c>
       <c r="F69">
-        <v>14.260102</v>
+        <f>$E69-$D$3</f>
+        <v>1.6347690000000004</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
-        <v>1.6347690000000004</v>
-      </c>
-      <c r="H69">
         <v>14.324999999999999</v>
       </c>
     </row>
@@ -6694,14 +6718,14 @@
       <c r="C70">
         <v>14.117000000000001</v>
       </c>
+      <c r="E70">
+        <v>14.273982999999999</v>
+      </c>
       <c r="F70">
-        <v>14.273982999999999</v>
+        <f>$E70-$D$3</f>
+        <v>1.6486499999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
-        <v>1.6486499999999999</v>
-      </c>
-      <c r="H70">
         <v>13.882</v>
       </c>
     </row>
@@ -6716,14 +6740,14 @@
       <c r="C71">
         <v>13.632999999999999</v>
       </c>
+      <c r="E71">
+        <v>14.291373999999999</v>
+      </c>
       <c r="F71">
-        <v>14.291373999999999</v>
+        <f>$E71-$D$3</f>
+        <v>1.6660409999999999</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
-        <v>1.6660409999999999</v>
-      </c>
-      <c r="H71">
         <v>17.390999999999998</v>
       </c>
     </row>
@@ -6738,14 +6762,14 @@
       <c r="C72">
         <v>14.324999999999999</v>
       </c>
+      <c r="E72">
+        <v>14.305047</v>
+      </c>
       <c r="F72">
-        <v>14.305047</v>
+        <f>$E72-$D$3</f>
+        <v>1.6797140000000006</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
-        <v>1.6797140000000006</v>
-      </c>
-      <c r="H72">
         <v>13.672000000000001</v>
       </c>
     </row>
@@ -6754,20 +6778,20 @@
         <v>14.273982999999999</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B115" si="2">$A73-$D$3</f>
+        <f t="shared" ref="B73:B115" si="1">$A73-$D$3</f>
         <v>1.6486499999999999</v>
       </c>
       <c r="C73">
         <v>13.882</v>
       </c>
+      <c r="E73">
+        <v>14.328365</v>
+      </c>
       <c r="F73">
-        <v>14.328365</v>
+        <f>$E73-$D$3</f>
+        <v>1.7030320000000003</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G111" si="3">$F73-$D$3</f>
-        <v>1.7030320000000003</v>
-      </c>
-      <c r="H73">
         <v>23.318000000000001</v>
       </c>
     </row>
@@ -6776,20 +6800,20 @@
         <v>14.291373999999999</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6660409999999999</v>
       </c>
       <c r="C74">
         <v>17.390999999999998</v>
       </c>
+      <c r="E74">
+        <v>14.354369999999999</v>
+      </c>
       <c r="F74">
-        <v>14.354369999999999</v>
+        <f>$E74-$D$3</f>
+        <v>1.7290369999999999</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
-        <v>1.7290369999999999</v>
-      </c>
-      <c r="H74">
         <v>26.004999999999999</v>
       </c>
     </row>
@@ -6798,20 +6822,20 @@
         <v>14.305047</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6797140000000006</v>
       </c>
       <c r="C75">
         <v>13.672000000000001</v>
       </c>
+      <c r="E75">
+        <v>14.368247</v>
+      </c>
       <c r="F75">
-        <v>14.368247</v>
+        <f>$E75-$D$3</f>
+        <v>1.7429140000000007</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
-        <v>1.7429140000000007</v>
-      </c>
-      <c r="H75">
         <v>13.877000000000001</v>
       </c>
     </row>
@@ -6820,20 +6844,20 @@
         <v>14.328365</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7030320000000003</v>
       </c>
       <c r="C76">
         <v>23.318000000000001</v>
       </c>
+      <c r="E76">
+        <v>14.382652999999999</v>
+      </c>
       <c r="F76">
-        <v>14.382652999999999</v>
+        <f>$E76-$D$3</f>
+        <v>1.75732</v>
       </c>
       <c r="G76">
-        <f t="shared" si="3"/>
-        <v>1.75732</v>
-      </c>
-      <c r="H76">
         <v>14.407</v>
       </c>
     </row>
@@ -6842,20 +6866,20 @@
         <v>14.354369999999999</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7290369999999999</v>
       </c>
       <c r="C77">
         <v>26.004999999999999</v>
       </c>
+      <c r="E77">
+        <v>14.404256</v>
+      </c>
       <c r="F77">
-        <v>14.404256</v>
+        <f>$E77-$D$3</f>
+        <v>1.7789230000000007</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
-        <v>1.7789230000000007</v>
-      </c>
-      <c r="H77">
         <v>21.602</v>
       </c>
     </row>
@@ -6864,20 +6888,20 @@
         <v>14.368247</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7429140000000007</v>
       </c>
       <c r="C78">
         <v>13.877000000000001</v>
       </c>
+      <c r="E78">
+        <v>14.440344</v>
+      </c>
       <c r="F78">
-        <v>14.440344</v>
+        <f>$E78-$D$3</f>
+        <v>1.8150110000000002</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
-        <v>1.8150110000000002</v>
-      </c>
-      <c r="H78">
         <v>36.088000000000001</v>
       </c>
     </row>
@@ -6886,20 +6910,20 @@
         <v>14.382652999999999</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.75732</v>
       </c>
       <c r="C79">
         <v>14.407</v>
       </c>
+      <c r="E79">
+        <v>14.461364</v>
+      </c>
       <c r="F79">
-        <v>14.461364</v>
+        <f>$E79-$D$3</f>
+        <v>1.8360310000000002</v>
       </c>
       <c r="G79">
-        <f t="shared" si="3"/>
-        <v>1.8360310000000002</v>
-      </c>
-      <c r="H79">
         <v>21.02</v>
       </c>
       <c r="M79" s="1"/>
@@ -6909,20 +6933,20 @@
         <v>14.404256</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7789230000000007</v>
       </c>
       <c r="C80">
         <v>21.602</v>
       </c>
+      <c r="E80">
+        <v>14.477318</v>
+      </c>
       <c r="F80">
-        <v>14.477318</v>
+        <f>$E80-$D$3</f>
+        <v>1.8519850000000009</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
-        <v>1.8519850000000009</v>
-      </c>
-      <c r="H80">
         <v>15.954000000000001</v>
       </c>
       <c r="M80" s="1"/>
@@ -6932,20 +6956,20 @@
         <v>14.440344</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8150110000000002</v>
       </c>
       <c r="C81">
         <v>36.088000000000001</v>
       </c>
+      <c r="E81">
+        <v>14.504441</v>
+      </c>
       <c r="F81">
-        <v>14.504441</v>
+        <f>$E81-$D$3</f>
+        <v>1.8791080000000004</v>
       </c>
       <c r="G81">
-        <f t="shared" si="3"/>
-        <v>1.8791080000000004</v>
-      </c>
-      <c r="H81">
         <v>27.123999999999999</v>
       </c>
       <c r="M81" s="1"/>
@@ -6955,20 +6979,20 @@
         <v>14.461364</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8360310000000002</v>
       </c>
       <c r="C82">
         <v>21.02</v>
       </c>
+      <c r="E82">
+        <v>14.525391000000001</v>
+      </c>
       <c r="F82">
-        <v>14.525391000000001</v>
+        <f>$E82-$D$3</f>
+        <v>1.9000580000000014</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
-        <v>1.9000580000000014</v>
-      </c>
-      <c r="H82">
         <v>20.949000000000002</v>
       </c>
       <c r="M82" s="1"/>
@@ -6978,20 +7002,20 @@
         <v>14.477318</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8519850000000009</v>
       </c>
       <c r="C83">
         <v>15.954000000000001</v>
       </c>
+      <c r="E83">
+        <v>14.556193</v>
+      </c>
       <c r="F83">
-        <v>14.556193</v>
+        <f>$E83-$D$3</f>
+        <v>1.9308600000000009</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
-        <v>1.9308600000000009</v>
-      </c>
-      <c r="H83">
         <v>30.802</v>
       </c>
       <c r="M83" s="1"/>
@@ -7001,20 +7025,20 @@
         <v>14.503715</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8783820000000002</v>
       </c>
       <c r="C84">
         <v>26.396999999999998</v>
       </c>
+      <c r="E84">
+        <v>14.595608</v>
+      </c>
       <c r="F84">
-        <v>14.595608</v>
+        <f>$E84-$D$3</f>
+        <v>1.9702750000000009</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
-        <v>1.9702750000000009</v>
-      </c>
-      <c r="H84">
         <v>39.415999999999997</v>
       </c>
     </row>
@@ -7023,20 +7047,20 @@
         <v>14.524940000000001</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8996070000000014</v>
       </c>
       <c r="C85">
         <v>21.225999999999999</v>
       </c>
+      <c r="E85">
+        <v>14.625154</v>
+      </c>
       <c r="F85">
-        <v>14.625154</v>
+        <f>$E85-$D$3</f>
+        <v>1.9998210000000007</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
-        <v>1.9998210000000007</v>
-      </c>
-      <c r="H85">
         <v>29.545000000000002</v>
       </c>
     </row>
@@ -7045,20 +7069,20 @@
         <v>14.556193</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9308600000000009</v>
       </c>
       <c r="C86">
         <v>31.251999999999999</v>
       </c>
+      <c r="E86">
+        <v>14.660273999999999</v>
+      </c>
       <c r="F86">
-        <v>14.660273999999999</v>
+        <f>$E86-$D$3</f>
+        <v>2.0349409999999999</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
-        <v>2.0349409999999999</v>
-      </c>
-      <c r="H86">
         <v>35.119999999999997</v>
       </c>
     </row>
@@ -7067,20 +7091,20 @@
         <v>14.595608</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9702750000000009</v>
       </c>
       <c r="C87">
         <v>39.415999999999997</v>
       </c>
+      <c r="E87">
+        <v>14.678732999999999</v>
+      </c>
       <c r="F87">
-        <v>14.678732999999999</v>
+        <f>$E87-$D$3</f>
+        <v>2.0533999999999999</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
-        <v>2.0533999999999999</v>
-      </c>
-      <c r="H87">
         <v>18.459</v>
       </c>
     </row>
@@ -7089,20 +7113,20 @@
         <v>14.625154</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9998210000000007</v>
       </c>
       <c r="C88">
         <v>29.545000000000002</v>
       </c>
+      <c r="E88">
+        <v>14.698276999999999</v>
+      </c>
       <c r="F88">
-        <v>14.698276999999999</v>
+        <f>$E88-$D$3</f>
+        <v>2.0729439999999997</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
-        <v>2.0729439999999997</v>
-      </c>
-      <c r="H88">
         <v>19.545000000000002</v>
       </c>
     </row>
@@ -7111,20 +7135,20 @@
         <v>14.660273999999999</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0349409999999999</v>
       </c>
       <c r="C89">
         <v>35.119999999999997</v>
       </c>
+      <c r="E89">
+        <v>14.724315000000001</v>
+      </c>
       <c r="F89">
-        <v>14.724315000000001</v>
+        <f>$E89-$D$3</f>
+        <v>2.0989820000000012</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
-        <v>2.0989820000000012</v>
-      </c>
-      <c r="H89">
         <v>26.038</v>
       </c>
     </row>
@@ -7133,20 +7157,20 @@
         <v>14.678732999999999</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0533999999999999</v>
       </c>
       <c r="C90">
         <v>18.459</v>
       </c>
+      <c r="E90">
+        <v>14.745443</v>
+      </c>
       <c r="F90">
-        <v>14.745443</v>
+        <f>$E90-$D$3</f>
+        <v>2.1201100000000004</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
-        <v>2.1201100000000004</v>
-      </c>
-      <c r="H90">
         <v>21.126999999999999</v>
       </c>
     </row>
@@ -7155,20 +7179,20 @@
         <v>14.698276999999999</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0729439999999997</v>
       </c>
       <c r="C91">
         <v>19.545000000000002</v>
       </c>
+      <c r="E91">
+        <v>14.75651</v>
+      </c>
       <c r="F91">
-        <v>14.75651</v>
+        <f>$E91-$D$3</f>
+        <v>2.131177000000001</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
-        <v>2.131177000000001</v>
-      </c>
-      <c r="H91">
         <v>11.067</v>
       </c>
     </row>
@@ -7177,20 +7201,20 @@
         <v>14.724315000000001</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0989820000000012</v>
       </c>
       <c r="C92">
         <v>26.038</v>
       </c>
+      <c r="E92">
+        <v>14.773077000000001</v>
+      </c>
       <c r="F92">
-        <v>14.773077000000001</v>
+        <f>$E92-$D$3</f>
+        <v>2.1477440000000012</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
-        <v>2.1477440000000012</v>
-      </c>
-      <c r="H92">
         <v>16.567</v>
       </c>
     </row>
@@ -7199,20 +7223,20 @@
         <v>14.745443</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1201100000000004</v>
       </c>
       <c r="C93">
         <v>21.126999999999999</v>
       </c>
+      <c r="E93">
+        <v>14.789790999999999</v>
+      </c>
       <c r="F93">
-        <v>14.789790999999999</v>
+        <f>$E93-$D$3</f>
+        <v>2.1644579999999998</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
-        <v>2.1644579999999998</v>
-      </c>
-      <c r="H93">
         <v>16.713999999999999</v>
       </c>
     </row>
@@ -7221,20 +7245,20 @@
         <v>14.75651</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.131177000000001</v>
       </c>
       <c r="C94">
         <v>11.067</v>
       </c>
+      <c r="E94">
+        <v>14.805275</v>
+      </c>
       <c r="F94">
-        <v>14.805275</v>
+        <f>$E94-$D$3</f>
+        <v>2.1799420000000005</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
-        <v>2.1799420000000005</v>
-      </c>
-      <c r="H94">
         <v>15.484999999999999</v>
       </c>
     </row>
@@ -7243,20 +7267,20 @@
         <v>14.773077000000001</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1477440000000012</v>
       </c>
       <c r="C95">
         <v>16.567</v>
       </c>
+      <c r="E95">
+        <v>14.834386</v>
+      </c>
       <c r="F95">
-        <v>14.834386</v>
+        <f>$E95-$D$3</f>
+        <v>2.2090530000000008</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
-        <v>2.2090530000000008</v>
-      </c>
-      <c r="H95">
         <v>29.11</v>
       </c>
     </row>
@@ -7265,415 +7289,430 @@
         <v>14.789790999999999</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1644579999999998</v>
       </c>
       <c r="C96">
         <v>16.713999999999999</v>
       </c>
+      <c r="E96">
+        <v>14.855815</v>
+      </c>
       <c r="F96">
-        <v>14.855815</v>
+        <f>$E96-$D$3</f>
+        <v>2.2304820000000003</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
-        <v>2.2304820000000003</v>
-      </c>
-      <c r="H96">
         <v>21.43</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14.805275</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1799420000000005</v>
       </c>
       <c r="C97">
         <v>15.484999999999999</v>
       </c>
+      <c r="E97">
+        <v>14.884067999999999</v>
+      </c>
       <c r="F97">
-        <v>14.884067999999999</v>
+        <f>$E97-$D$3</f>
+        <v>2.2587349999999997</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
-        <v>2.2587349999999997</v>
-      </c>
-      <c r="H97">
         <v>28.253</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14.834386</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2090530000000008</v>
       </c>
       <c r="C98">
         <v>29.11</v>
       </c>
+      <c r="E98">
+        <v>14.914177</v>
+      </c>
       <c r="F98">
-        <v>14.914177</v>
+        <f>$E98-$D$3</f>
+        <v>2.288844000000001</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
-        <v>2.288844000000001</v>
-      </c>
-      <c r="H98">
         <v>30.109000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14.849035000000001</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2237020000000012</v>
       </c>
       <c r="C99">
         <v>14.65</v>
       </c>
+      <c r="E99">
+        <v>14.934260999999999</v>
+      </c>
       <c r="F99">
-        <v>14.934260999999999</v>
+        <f>$E99-$D$3</f>
+        <v>2.3089279999999999</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
-        <v>2.3089279999999999</v>
-      </c>
-      <c r="H99">
         <v>20.082999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14.869671</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2443380000000008</v>
       </c>
       <c r="C100">
         <v>20.635000000000002</v>
       </c>
+      <c r="E100">
+        <v>14.948797000000001</v>
+      </c>
       <c r="F100">
-        <v>14.948797000000001</v>
+        <f>$E100-$D$3</f>
+        <v>2.3234640000000013</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
-        <v>2.3234640000000013</v>
-      </c>
-      <c r="H100">
         <v>14.537000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14.884067999999999</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2587349999999997</v>
       </c>
       <c r="C101">
         <v>14.398</v>
       </c>
+      <c r="E101">
+        <v>14.98052</v>
+      </c>
       <c r="F101">
-        <v>14.98052</v>
+        <f>$E101-$D$3</f>
+        <v>2.3551870000000008</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
-        <v>2.3551870000000008</v>
-      </c>
-      <c r="H101">
         <v>31.722999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14.914177</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.288844000000001</v>
       </c>
       <c r="C102">
         <v>30.109000000000002</v>
       </c>
+      <c r="E102">
+        <v>15.024684000000001</v>
+      </c>
       <c r="F102">
-        <v>15.024684000000001</v>
+        <f>$E102-$D$3</f>
+        <v>2.3993510000000011</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
-        <v>2.3993510000000011</v>
-      </c>
-      <c r="H102">
         <v>44.164000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14.934260999999999</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3089279999999999</v>
       </c>
       <c r="C103">
         <v>20.082999999999998</v>
       </c>
+      <c r="E103">
+        <v>15.045375999999999</v>
+      </c>
       <c r="F103">
-        <v>15.045375999999999</v>
+        <f>$E103-$D$3</f>
+        <v>2.4200429999999997</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
-        <v>2.4200429999999997</v>
-      </c>
-      <c r="H103">
         <v>20.690999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14.948797000000001</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3234640000000013</v>
       </c>
       <c r="C104">
         <v>14.537000000000001</v>
       </c>
+      <c r="E104">
+        <v>15.059005000000001</v>
+      </c>
       <c r="F104">
-        <v>15.059005000000001</v>
+        <f>$E104-$D$3</f>
+        <v>2.4336720000000014</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
-        <v>2.4336720000000014</v>
-      </c>
-      <c r="H104">
         <v>13.629</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14.98052</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3551870000000008</v>
       </c>
       <c r="C105">
         <v>31.722999999999999</v>
       </c>
+      <c r="E105">
+        <v>15.073019</v>
+      </c>
       <c r="F105">
-        <v>15.073019</v>
+        <f>$E105-$D$3</f>
+        <v>2.4476860000000009</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
-        <v>2.4476860000000009</v>
-      </c>
-      <c r="H105">
         <v>14.015000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15.024684000000001</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3993510000000011</v>
       </c>
       <c r="C106">
         <v>44.164000000000001</v>
       </c>
+      <c r="E106">
+        <v>15.087045</v>
+      </c>
       <c r="F106">
-        <v>15.087045</v>
+        <f>$E106-$D$3</f>
+        <v>2.4617120000000003</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
-        <v>2.4617120000000003</v>
-      </c>
-      <c r="H106">
         <v>14.026</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15.045375999999999</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4200429999999997</v>
       </c>
       <c r="C107">
         <v>20.690999999999999</v>
       </c>
+      <c r="E107">
+        <v>15.121231999999999</v>
+      </c>
       <c r="F107">
-        <v>15.121231999999999</v>
+        <f>$E107-$D$3</f>
+        <v>2.4958989999999996</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
-        <v>2.4958989999999996</v>
-      </c>
-      <c r="H107">
         <v>34.186</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>15.059005000000001</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4336720000000014</v>
       </c>
       <c r="C108">
         <v>13.629</v>
       </c>
+      <c r="E108">
+        <v>15.149346</v>
+      </c>
       <c r="F108">
-        <v>15.149346</v>
+        <f>$E108-$D$3</f>
+        <v>2.5240130000000001</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
-        <v>2.5240130000000001</v>
-      </c>
-      <c r="H108">
         <v>28.114000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>15.073019</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4476860000000009</v>
       </c>
       <c r="C109">
         <v>14.015000000000001</v>
       </c>
+      <c r="E109">
+        <v>15.164104</v>
+      </c>
       <c r="F109">
-        <v>15.164104</v>
+        <f>$E109-$D$3</f>
+        <v>2.5387710000000006</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
-        <v>2.5387710000000006</v>
-      </c>
-      <c r="H109">
         <v>14.759</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>15.087045</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4617120000000003</v>
       </c>
       <c r="C110">
         <v>14.026</v>
       </c>
+      <c r="E110">
+        <v>15.180301</v>
+      </c>
       <c r="F110">
-        <v>15.180301</v>
+        <f>$E110-$D$3</f>
+        <v>2.5549680000000006</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
-        <v>2.5549680000000006</v>
-      </c>
-      <c r="H110">
         <v>16.196999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>15.121231999999999</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4958989999999996</v>
       </c>
       <c r="C111">
         <v>34.186</v>
       </c>
+      <c r="E111">
+        <v>15.201036</v>
+      </c>
       <c r="F111">
-        <v>15.201036</v>
+        <f>$E111-$D$3</f>
+        <v>2.5757030000000007</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
-        <v>2.5757030000000007</v>
-      </c>
-      <c r="H111">
         <v>20.734999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>15.149346</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5240130000000001</v>
       </c>
       <c r="C112">
         <v>28.114000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>15.164104</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5387710000000006</v>
       </c>
       <c r="C113">
         <v>14.759</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>15.180301</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5549680000000006</v>
       </c>
       <c r="C114">
         <v>16.196999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>15.201036</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5757030000000007</v>
       </c>
       <c r="C115">
         <v>20.734999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>12.625332999999999</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>12.625332999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>2</v>
       </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -7683,17 +7722,17 @@
       <c r="C131" t="s">
         <v>6</v>
       </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
       <c r="F131" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G131" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13.060188999999999</v>
       </c>
@@ -7704,2325 +7743,2325 @@
       <c r="C132">
         <v>29.844999999999999</v>
       </c>
+      <c r="E132">
+        <v>13.090909</v>
+      </c>
       <c r="F132">
-        <v>13.090909</v>
+        <f>E132-$D$3</f>
+        <v>0.46557600000000043</v>
       </c>
       <c r="G132">
-        <f>F132-$D$3</f>
-        <v>0.46557600000000043</v>
-      </c>
-      <c r="H132">
         <v>30.721</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13.090909</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B196" si="4">A133-$D$3</f>
+        <f t="shared" ref="B133:B196" si="2">A133-$D$3</f>
         <v>0.46557600000000043</v>
       </c>
       <c r="C133">
         <v>30.721</v>
       </c>
+      <c r="E133">
+        <v>13.105366999999999</v>
+      </c>
       <c r="F133">
-        <v>13.105366999999999</v>
+        <f t="shared" ref="F133:F196" si="3">E133-$D$3</f>
+        <v>0.48003399999999985</v>
       </c>
       <c r="G133">
-        <f t="shared" ref="G133:G196" si="5">F133-$D$3</f>
-        <v>0.48003399999999985</v>
-      </c>
-      <c r="H133">
         <v>14.458</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13.105366999999999</v>
       </c>
       <c r="B134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.48003399999999985</v>
       </c>
       <c r="C134">
         <v>14.458</v>
       </c>
+      <c r="E134">
+        <v>13.119767</v>
+      </c>
       <c r="F134">
-        <v>13.119767</v>
+        <f t="shared" si="3"/>
+        <v>0.49443400000000004</v>
       </c>
       <c r="G134">
-        <f t="shared" si="5"/>
-        <v>0.49443400000000004</v>
-      </c>
-      <c r="H134">
         <v>14.4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13.119767</v>
       </c>
       <c r="B135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.49443400000000004</v>
       </c>
       <c r="C135">
         <v>14.4</v>
       </c>
+      <c r="E135">
+        <v>13.138741</v>
+      </c>
       <c r="F135">
-        <v>13.138741</v>
+        <f t="shared" si="3"/>
+        <v>0.51340800000000009</v>
       </c>
       <c r="G135">
-        <f t="shared" si="5"/>
-        <v>0.51340800000000009</v>
-      </c>
-      <c r="H135">
         <v>18.974</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13.138741</v>
       </c>
       <c r="B136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.51340800000000009</v>
       </c>
       <c r="C136">
         <v>18.974</v>
       </c>
+      <c r="E136">
+        <v>13.152645</v>
+      </c>
       <c r="F136">
-        <v>13.152645</v>
+        <f t="shared" si="3"/>
+        <v>0.52731200000000022</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
-        <v>0.52731200000000022</v>
-      </c>
-      <c r="H136">
         <v>13.903</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13.152645</v>
       </c>
       <c r="B137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.52731200000000022</v>
       </c>
       <c r="C137">
         <v>13.903</v>
       </c>
+      <c r="E137">
+        <v>13.167655999999999</v>
+      </c>
       <c r="F137">
-        <v>13.167655999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.54232299999999967</v>
       </c>
       <c r="G137">
-        <f t="shared" si="5"/>
-        <v>0.54232299999999967</v>
-      </c>
-      <c r="H137">
         <v>15.012</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13.167655999999999</v>
       </c>
       <c r="B138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.54232299999999967</v>
       </c>
       <c r="C138">
         <v>15.012</v>
       </c>
+      <c r="E138">
+        <v>13.184453</v>
+      </c>
       <c r="F138">
-        <v>13.184453</v>
+        <f t="shared" si="3"/>
+        <v>0.55912000000000006</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
-        <v>0.55912000000000006</v>
-      </c>
-      <c r="H138">
         <v>16.797000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13.184453</v>
       </c>
       <c r="B139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.55912000000000006</v>
       </c>
       <c r="C139">
         <v>16.797000000000001</v>
       </c>
+      <c r="E139">
+        <v>13.200426</v>
+      </c>
       <c r="F139">
-        <v>13.200426</v>
+        <f t="shared" si="3"/>
+        <v>0.57509300000000074</v>
       </c>
       <c r="G139">
-        <f t="shared" si="5"/>
-        <v>0.57509300000000074</v>
-      </c>
-      <c r="H139">
         <v>15.972</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13.200426</v>
       </c>
       <c r="B140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.57509300000000074</v>
       </c>
       <c r="C140">
         <v>15.972</v>
       </c>
+      <c r="E140">
+        <v>13.215712</v>
+      </c>
       <c r="F140">
-        <v>13.215712</v>
+        <f t="shared" si="3"/>
+        <v>0.59037900000000043</v>
       </c>
       <c r="G140">
-        <f t="shared" si="5"/>
-        <v>0.59037900000000043</v>
-      </c>
-      <c r="H140">
         <v>15.286</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13.215712</v>
       </c>
       <c r="B141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.59037900000000043</v>
       </c>
       <c r="C141">
         <v>15.286</v>
       </c>
+      <c r="E141">
+        <v>13.230361</v>
+      </c>
       <c r="F141">
-        <v>13.230361</v>
+        <f t="shared" si="3"/>
+        <v>0.60502800000000079</v>
       </c>
       <c r="G141">
-        <f t="shared" si="5"/>
-        <v>0.60502800000000079</v>
-      </c>
-      <c r="H141">
         <v>14.65</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>13.230361</v>
       </c>
       <c r="B142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.60502800000000079</v>
       </c>
       <c r="C142">
         <v>14.65</v>
       </c>
+      <c r="E142">
+        <v>13.244565</v>
+      </c>
       <c r="F142">
-        <v>13.244565</v>
+        <f t="shared" si="3"/>
+        <v>0.61923200000000023</v>
       </c>
       <c r="G142">
-        <f t="shared" si="5"/>
-        <v>0.61923200000000023</v>
-      </c>
-      <c r="H142">
         <v>14.202999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>13.244565</v>
       </c>
       <c r="B143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.61923200000000023</v>
       </c>
       <c r="C143">
         <v>14.202999999999999</v>
       </c>
+      <c r="E143">
+        <v>13.260370999999999</v>
+      </c>
       <c r="F143">
-        <v>13.260370999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.63503799999999977</v>
       </c>
       <c r="G143">
-        <f t="shared" si="5"/>
-        <v>0.63503799999999977</v>
-      </c>
-      <c r="H143">
         <v>15.807</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>13.260370999999999</v>
       </c>
       <c r="B144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.63503799999999977</v>
       </c>
       <c r="C144">
         <v>15.807</v>
       </c>
+      <c r="E144">
+        <v>13.275974</v>
+      </c>
       <c r="F144">
-        <v>13.275974</v>
+        <f t="shared" si="3"/>
+        <v>0.65064100000000025</v>
       </c>
       <c r="G144">
-        <f t="shared" si="5"/>
-        <v>0.65064100000000025</v>
-      </c>
-      <c r="H144">
         <v>15.603</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>13.275974</v>
       </c>
       <c r="B145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.65064100000000025</v>
       </c>
       <c r="C145">
         <v>15.603</v>
       </c>
+      <c r="E145">
+        <v>13.290687</v>
+      </c>
       <c r="F145">
-        <v>13.290687</v>
+        <f t="shared" si="3"/>
+        <v>0.66535400000000067</v>
       </c>
       <c r="G145">
-        <f t="shared" si="5"/>
-        <v>0.66535400000000067</v>
-      </c>
-      <c r="H145">
         <v>14.712</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>13.290687</v>
       </c>
       <c r="B146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.66535400000000067</v>
       </c>
       <c r="C146">
         <v>14.712</v>
       </c>
+      <c r="E146">
+        <v>13.309823</v>
+      </c>
       <c r="F146">
-        <v>13.309823</v>
+        <f t="shared" si="3"/>
+        <v>0.68449000000000026</v>
       </c>
       <c r="G146">
-        <f t="shared" si="5"/>
-        <v>0.68449000000000026</v>
-      </c>
-      <c r="H146">
         <v>19.137</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>13.309823</v>
       </c>
       <c r="B147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.68449000000000026</v>
       </c>
       <c r="C147">
         <v>19.137</v>
       </c>
+      <c r="E147">
+        <v>13.343427</v>
+      </c>
       <c r="F147">
-        <v>13.343427</v>
+        <f t="shared" si="3"/>
+        <v>0.71809400000000068</v>
       </c>
       <c r="G147">
-        <f t="shared" si="5"/>
-        <v>0.71809400000000068</v>
-      </c>
-      <c r="H147">
         <v>33.603999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>13.323729</v>
       </c>
       <c r="B148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.69839600000000068</v>
       </c>
       <c r="C148">
         <v>13.906000000000001</v>
       </c>
+      <c r="E148">
+        <v>13.357491</v>
+      </c>
       <c r="F148">
-        <v>13.357491</v>
+        <f t="shared" si="3"/>
+        <v>0.73215800000000009</v>
       </c>
       <c r="G148">
-        <f t="shared" si="5"/>
-        <v>0.73215800000000009</v>
-      </c>
-      <c r="H148">
         <v>14.063000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>13.343427</v>
       </c>
       <c r="B149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.71809400000000068</v>
       </c>
       <c r="C149">
         <v>19.698</v>
       </c>
+      <c r="E149">
+        <v>13.371371</v>
+      </c>
       <c r="F149">
-        <v>13.371371</v>
+        <f t="shared" si="3"/>
+        <v>0.74603800000000042</v>
       </c>
       <c r="G149">
-        <f t="shared" si="5"/>
-        <v>0.74603800000000042</v>
-      </c>
-      <c r="H149">
         <v>13.88</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>13.357491</v>
       </c>
       <c r="B150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.73215800000000009</v>
       </c>
       <c r="C150">
         <v>14.063000000000001</v>
       </c>
+      <c r="E150">
+        <v>13.390511</v>
+      </c>
       <c r="F150">
-        <v>13.390511</v>
+        <f t="shared" si="3"/>
+        <v>0.76517800000000058</v>
       </c>
       <c r="G150">
-        <f t="shared" si="5"/>
-        <v>0.76517800000000058</v>
-      </c>
-      <c r="H150">
         <v>19.14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>13.371371</v>
       </c>
       <c r="B151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.74603800000000042</v>
       </c>
       <c r="C151">
         <v>13.88</v>
       </c>
+      <c r="E151">
+        <v>13.401372</v>
+      </c>
       <c r="F151">
-        <v>13.401372</v>
+        <f t="shared" si="3"/>
+        <v>0.77603900000000081</v>
       </c>
       <c r="G151">
-        <f t="shared" si="5"/>
-        <v>0.77603900000000081</v>
-      </c>
-      <c r="H151">
         <v>10.862</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>13.390511</v>
       </c>
       <c r="B152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.76517800000000058</v>
       </c>
       <c r="C152">
         <v>19.14</v>
       </c>
+      <c r="E152">
+        <v>13.416115</v>
+      </c>
       <c r="F152">
-        <v>13.416115</v>
+        <f t="shared" si="3"/>
+        <v>0.7907820000000001</v>
       </c>
       <c r="G152">
-        <f t="shared" si="5"/>
-        <v>0.7907820000000001</v>
-      </c>
-      <c r="H152">
         <v>14.742000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>13.401372</v>
       </c>
       <c r="B153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.77603900000000081</v>
       </c>
       <c r="C153">
         <v>10.862</v>
       </c>
+      <c r="E153">
+        <v>13.432281</v>
+      </c>
       <c r="F153">
-        <v>13.432281</v>
+        <f t="shared" si="3"/>
+        <v>0.80694800000000022</v>
       </c>
       <c r="G153">
-        <f t="shared" si="5"/>
-        <v>0.80694800000000022</v>
-      </c>
-      <c r="H153">
         <v>16.167000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>13.416115</v>
       </c>
       <c r="B154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.7907820000000001</v>
       </c>
       <c r="C154">
         <v>14.742000000000001</v>
       </c>
+      <c r="E154">
+        <v>13.446885</v>
+      </c>
       <c r="F154">
-        <v>13.446885</v>
+        <f t="shared" si="3"/>
+        <v>0.8215520000000005</v>
       </c>
       <c r="G154">
-        <f t="shared" si="5"/>
-        <v>0.8215520000000005</v>
-      </c>
-      <c r="H154">
         <v>14.603</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>13.432281</v>
       </c>
       <c r="B155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.80694800000000022</v>
       </c>
       <c r="C155">
         <v>16.167000000000002</v>
       </c>
+      <c r="E155">
+        <v>13.462713000000001</v>
+      </c>
       <c r="F155">
-        <v>13.462713000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.83738000000000135</v>
       </c>
       <c r="G155">
-        <f t="shared" si="5"/>
-        <v>0.83738000000000135</v>
-      </c>
-      <c r="H155">
         <v>15.827999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>13.446885</v>
       </c>
       <c r="B156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.8215520000000005</v>
       </c>
       <c r="C156">
         <v>14.603</v>
       </c>
+      <c r="E156">
+        <v>13.480967</v>
+      </c>
       <c r="F156">
-        <v>13.480967</v>
+        <f t="shared" si="3"/>
+        <v>0.85563400000000023</v>
       </c>
       <c r="G156">
-        <f t="shared" si="5"/>
-        <v>0.85563400000000023</v>
-      </c>
-      <c r="H156">
         <v>18.254999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>13.462713000000001</v>
       </c>
       <c r="B157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.83738000000000135</v>
       </c>
       <c r="C157">
         <v>15.827999999999999</v>
       </c>
+      <c r="E157">
+        <v>13.510540000000001</v>
+      </c>
       <c r="F157">
-        <v>13.510540000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.88520700000000119</v>
       </c>
       <c r="G157">
-        <f t="shared" si="5"/>
-        <v>0.88520700000000119</v>
-      </c>
-      <c r="H157">
         <v>29.573</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>13.480967</v>
       </c>
       <c r="B158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.85563400000000023</v>
       </c>
       <c r="C158">
         <v>18.254999999999999</v>
       </c>
+      <c r="E158">
+        <v>13.525382</v>
+      </c>
       <c r="F158">
-        <v>13.525382</v>
+        <f t="shared" si="3"/>
+        <v>0.90004900000000099</v>
       </c>
       <c r="G158">
-        <f t="shared" si="5"/>
-        <v>0.90004900000000099</v>
-      </c>
-      <c r="H158">
         <v>14.840999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>13.510540000000001</v>
       </c>
       <c r="B159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.88520700000000119</v>
       </c>
       <c r="C159">
         <v>29.573</v>
       </c>
+      <c r="E159">
+        <v>13.541922</v>
+      </c>
       <c r="F159">
-        <v>13.541922</v>
+        <f t="shared" si="3"/>
+        <v>0.9165890000000001</v>
       </c>
       <c r="G159">
-        <f t="shared" si="5"/>
-        <v>0.9165890000000001</v>
-      </c>
-      <c r="H159">
         <v>16.54</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>13.525382</v>
       </c>
       <c r="B160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.90004900000000099</v>
       </c>
       <c r="C160">
         <v>14.840999999999999</v>
       </c>
+      <c r="E160">
+        <v>13.559941</v>
+      </c>
       <c r="F160">
-        <v>13.559941</v>
+        <f t="shared" si="3"/>
+        <v>0.93460800000000077</v>
       </c>
       <c r="G160">
-        <f t="shared" si="5"/>
-        <v>0.93460800000000077</v>
-      </c>
-      <c r="H160">
         <v>18.018999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13.541922</v>
       </c>
       <c r="B161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.9165890000000001</v>
       </c>
       <c r="C161">
         <v>16.54</v>
       </c>
+      <c r="E161">
+        <v>13.580496999999999</v>
+      </c>
       <c r="F161">
-        <v>13.580496999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.9551639999999999</v>
       </c>
       <c r="G161">
-        <f t="shared" si="5"/>
-        <v>0.9551639999999999</v>
-      </c>
-      <c r="H161">
         <v>20.556999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>13.559941</v>
       </c>
       <c r="B162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.93460800000000077</v>
       </c>
       <c r="C162">
         <v>18.018999999999998</v>
       </c>
+      <c r="E162">
+        <v>13.610728</v>
+      </c>
       <c r="F162">
-        <v>13.610728</v>
+        <f t="shared" si="3"/>
+        <v>0.98539500000000046</v>
       </c>
       <c r="G162">
-        <f t="shared" si="5"/>
-        <v>0.98539500000000046</v>
-      </c>
-      <c r="H162">
         <v>30.231000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>13.580496999999999</v>
       </c>
       <c r="B163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.9551639999999999</v>
       </c>
       <c r="C163">
         <v>20.556999999999999</v>
       </c>
+      <c r="E163">
+        <v>13.640727</v>
+      </c>
       <c r="F163">
-        <v>13.640727</v>
+        <f t="shared" si="3"/>
+        <v>1.0153940000000006</v>
       </c>
       <c r="G163">
-        <f t="shared" si="5"/>
-        <v>1.0153940000000006</v>
-      </c>
-      <c r="H163">
         <v>29.998000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>13.610728</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.98539500000000046</v>
       </c>
       <c r="C164">
         <v>30.231000000000002</v>
       </c>
+      <c r="E164">
+        <v>13.670624</v>
+      </c>
       <c r="F164">
-        <v>13.670624</v>
+        <f t="shared" si="3"/>
+        <v>1.0452910000000006</v>
       </c>
       <c r="G164">
-        <f t="shared" si="5"/>
-        <v>1.0452910000000006</v>
-      </c>
-      <c r="H164">
         <v>29.898</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>13.640727</v>
       </c>
       <c r="B165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0153940000000006</v>
       </c>
       <c r="C165">
         <v>29.998000000000001</v>
       </c>
+      <c r="E165">
+        <v>13.710438</v>
+      </c>
       <c r="F165">
-        <v>13.710438</v>
+        <f t="shared" si="3"/>
+        <v>1.0851050000000004</v>
       </c>
       <c r="G165">
-        <f t="shared" si="5"/>
-        <v>1.0851050000000004</v>
-      </c>
-      <c r="H165">
         <v>39.813000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>13.670624</v>
       </c>
       <c r="B166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0452910000000006</v>
       </c>
       <c r="C166">
         <v>29.898</v>
       </c>
+      <c r="E166">
+        <v>13.728918999999999</v>
+      </c>
       <c r="F166">
-        <v>13.728918999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.103586</v>
       </c>
       <c r="G166">
-        <f t="shared" si="5"/>
-        <v>1.103586</v>
-      </c>
-      <c r="H166">
         <v>18.481000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>13.710438</v>
       </c>
       <c r="B167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0851050000000004</v>
       </c>
       <c r="C167">
         <v>39.813000000000002</v>
       </c>
+      <c r="E167">
+        <v>13.745676</v>
+      </c>
       <c r="F167">
-        <v>13.745676</v>
+        <f t="shared" si="3"/>
+        <v>1.1203430000000001</v>
       </c>
       <c r="G167">
-        <f t="shared" si="5"/>
-        <v>1.1203430000000001</v>
-      </c>
-      <c r="H167">
         <v>16.757000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>13.728918999999999</v>
       </c>
       <c r="B168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.103586</v>
       </c>
       <c r="C168">
         <v>18.481000000000002</v>
       </c>
+      <c r="E168">
+        <v>13.760014</v>
+      </c>
       <c r="F168">
-        <v>13.760014</v>
+        <f t="shared" si="3"/>
+        <v>1.1346810000000005</v>
       </c>
       <c r="G168">
-        <f t="shared" si="5"/>
-        <v>1.1346810000000005</v>
-      </c>
-      <c r="H168">
         <v>14.337999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>13.745676</v>
       </c>
       <c r="B169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1203430000000001</v>
       </c>
       <c r="C169">
         <v>16.757000000000001</v>
       </c>
+      <c r="E169">
+        <v>13.790447</v>
+      </c>
       <c r="F169">
-        <v>13.790447</v>
+        <f t="shared" si="3"/>
+        <v>1.1651140000000009</v>
       </c>
       <c r="G169">
-        <f t="shared" si="5"/>
-        <v>1.1651140000000009</v>
-      </c>
-      <c r="H169">
         <v>30.434000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>13.760014</v>
       </c>
       <c r="B170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1346810000000005</v>
       </c>
       <c r="C170">
         <v>14.337999999999999</v>
       </c>
+      <c r="E170">
+        <v>13.810831</v>
+      </c>
       <c r="F170">
-        <v>13.810831</v>
+        <f t="shared" si="3"/>
+        <v>1.1854980000000008</v>
       </c>
       <c r="G170">
-        <f t="shared" si="5"/>
-        <v>1.1854980000000008</v>
-      </c>
-      <c r="H170">
         <v>20.382999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>13.790447</v>
       </c>
       <c r="B171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1651140000000009</v>
       </c>
       <c r="C171">
         <v>30.434000000000001</v>
       </c>
+      <c r="E171">
+        <v>13.824611000000001</v>
+      </c>
       <c r="F171">
-        <v>13.824611000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.1992780000000014</v>
       </c>
       <c r="G171">
-        <f t="shared" si="5"/>
-        <v>1.1992780000000014</v>
-      </c>
-      <c r="H171">
         <v>13.781000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>13.810831</v>
       </c>
       <c r="B172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1854980000000008</v>
       </c>
       <c r="C172">
         <v>20.382999999999999</v>
       </c>
+      <c r="E172">
+        <v>13.838365</v>
+      </c>
       <c r="F172">
-        <v>13.838365</v>
+        <f t="shared" si="3"/>
+        <v>1.2130320000000001</v>
       </c>
       <c r="G172">
-        <f t="shared" si="5"/>
-        <v>1.2130320000000001</v>
-      </c>
-      <c r="H172">
         <v>13.753</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>13.824611000000001</v>
       </c>
       <c r="B173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1992780000000014</v>
       </c>
       <c r="C173">
         <v>13.781000000000001</v>
       </c>
+      <c r="E173">
+        <v>13.853714</v>
+      </c>
       <c r="F173">
-        <v>13.853714</v>
+        <f t="shared" si="3"/>
+        <v>1.2283810000000006</v>
       </c>
       <c r="G173">
-        <f t="shared" si="5"/>
-        <v>1.2283810000000006</v>
-      </c>
-      <c r="H173">
         <v>15.35</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>13.838365</v>
       </c>
       <c r="B174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2130320000000001</v>
       </c>
       <c r="C174">
         <v>13.753</v>
       </c>
+      <c r="E174">
+        <v>13.870333</v>
+      </c>
       <c r="F174">
-        <v>13.870333</v>
+        <f t="shared" si="3"/>
+        <v>1.245000000000001</v>
       </c>
       <c r="G174">
-        <f t="shared" si="5"/>
-        <v>1.245000000000001</v>
-      </c>
-      <c r="H174">
         <v>16.619</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>13.853714</v>
       </c>
       <c r="B175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2283810000000006</v>
       </c>
       <c r="C175">
         <v>15.35</v>
       </c>
+      <c r="E175">
+        <v>13.890834</v>
+      </c>
       <c r="F175">
-        <v>13.890834</v>
+        <f t="shared" si="3"/>
+        <v>1.2655010000000004</v>
       </c>
       <c r="G175">
-        <f t="shared" si="5"/>
-        <v>1.2655010000000004</v>
-      </c>
-      <c r="H175">
         <v>20.5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>13.870333</v>
       </c>
       <c r="B176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.245000000000001</v>
       </c>
       <c r="C176">
         <v>16.619</v>
       </c>
+      <c r="E176">
+        <v>13.925917999999999</v>
+      </c>
       <c r="F176">
-        <v>13.925917999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.3005849999999999</v>
       </c>
       <c r="G176">
-        <f t="shared" si="5"/>
-        <v>1.3005849999999999</v>
-      </c>
-      <c r="H176">
         <v>35.084000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>13.890834</v>
       </c>
       <c r="B177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2655010000000004</v>
       </c>
       <c r="C177">
         <v>20.5</v>
       </c>
+      <c r="E177">
+        <v>13.947053</v>
+      </c>
       <c r="F177">
-        <v>13.947053</v>
+        <f t="shared" si="3"/>
+        <v>1.3217200000000009</v>
       </c>
       <c r="G177">
-        <f t="shared" si="5"/>
-        <v>1.3217200000000009</v>
-      </c>
-      <c r="H177">
         <v>21.135999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>13.925917999999999</v>
       </c>
       <c r="B178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3005849999999999</v>
       </c>
       <c r="C178">
         <v>35.084000000000003</v>
       </c>
+      <c r="E178">
+        <v>13.967612000000001</v>
+      </c>
       <c r="F178">
-        <v>13.967612000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.3422790000000013</v>
       </c>
       <c r="G178">
-        <f t="shared" si="5"/>
-        <v>1.3422790000000013</v>
-      </c>
-      <c r="H178">
         <v>20.559000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>13.947053</v>
       </c>
       <c r="B179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3217200000000009</v>
       </c>
       <c r="C179">
         <v>21.135999999999999</v>
       </c>
+      <c r="E179">
+        <v>13.982265</v>
+      </c>
       <c r="F179">
-        <v>13.982265</v>
+        <f t="shared" si="3"/>
+        <v>1.3569320000000005</v>
       </c>
       <c r="G179">
-        <f t="shared" si="5"/>
-        <v>1.3569320000000005</v>
-      </c>
-      <c r="H179">
         <v>14.653</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>13.967612000000001</v>
       </c>
       <c r="B180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3422790000000013</v>
       </c>
       <c r="C180">
         <v>20.559000000000001</v>
       </c>
+      <c r="E180">
+        <v>13.999931</v>
+      </c>
       <c r="F180">
-        <v>13.999931</v>
+        <f t="shared" si="3"/>
+        <v>1.3745980000000007</v>
       </c>
       <c r="G180">
-        <f t="shared" si="5"/>
-        <v>1.3745980000000007</v>
-      </c>
-      <c r="H180">
         <v>17.664999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>13.982265</v>
       </c>
       <c r="B181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3569320000000005</v>
       </c>
       <c r="C181">
         <v>14.653</v>
       </c>
+      <c r="E181">
+        <v>14.015402999999999</v>
+      </c>
       <c r="F181">
-        <v>14.015402999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.3900699999999997</v>
       </c>
       <c r="G181">
-        <f t="shared" si="5"/>
-        <v>1.3900699999999997</v>
-      </c>
-      <c r="H181">
         <v>15.473000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>13.999931</v>
       </c>
       <c r="B182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3745980000000007</v>
       </c>
       <c r="C182">
         <v>17.664999999999999</v>
       </c>
+      <c r="E182">
+        <v>14.032259</v>
+      </c>
       <c r="F182">
-        <v>14.032259</v>
+        <f t="shared" si="3"/>
+        <v>1.4069260000000003</v>
       </c>
       <c r="G182">
-        <f t="shared" si="5"/>
-        <v>1.4069260000000003</v>
-      </c>
-      <c r="H182">
         <v>16.856000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>14.015402999999999</v>
       </c>
       <c r="B183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3900699999999997</v>
       </c>
       <c r="C183">
         <v>15.473000000000001</v>
       </c>
+      <c r="E183">
+        <v>14.062417999999999</v>
+      </c>
       <c r="F183">
-        <v>14.062417999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.4370849999999997</v>
       </c>
       <c r="G183">
-        <f t="shared" si="5"/>
-        <v>1.4370849999999997</v>
-      </c>
-      <c r="H183">
         <v>30.158999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>14.032259</v>
       </c>
       <c r="B184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4069260000000003</v>
       </c>
       <c r="C184">
         <v>16.856000000000002</v>
       </c>
+      <c r="E184">
+        <v>14.09113</v>
+      </c>
       <c r="F184">
-        <v>14.09113</v>
+        <f t="shared" si="3"/>
+        <v>1.4657970000000002</v>
       </c>
       <c r="G184">
-        <f t="shared" si="5"/>
-        <v>1.4657970000000002</v>
-      </c>
-      <c r="H184">
         <v>28.712</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14.062417999999999</v>
       </c>
       <c r="B185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4370849999999997</v>
       </c>
       <c r="C185">
         <v>30.158999999999999</v>
       </c>
+      <c r="E185">
+        <v>14.106622</v>
+      </c>
       <c r="F185">
-        <v>14.106622</v>
+        <f t="shared" si="3"/>
+        <v>1.4812890000000003</v>
       </c>
       <c r="G185">
-        <f t="shared" si="5"/>
-        <v>1.4812890000000003</v>
-      </c>
-      <c r="H185">
         <v>15.492000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14.075124000000001</v>
       </c>
       <c r="B186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4497910000000012</v>
       </c>
       <c r="C186">
         <v>12.706</v>
       </c>
+      <c r="E186">
+        <v>14.140305</v>
+      </c>
       <c r="F186">
-        <v>14.140305</v>
+        <f t="shared" si="3"/>
+        <v>1.5149720000000002</v>
       </c>
       <c r="G186">
-        <f t="shared" si="5"/>
-        <v>1.5149720000000002</v>
-      </c>
-      <c r="H186">
         <v>33.683</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>14.09113</v>
       </c>
       <c r="B187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4657970000000002</v>
       </c>
       <c r="C187">
         <v>16.006</v>
       </c>
+      <c r="E187">
+        <v>14.171449000000001</v>
+      </c>
       <c r="F187">
-        <v>14.171449000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.5461160000000014</v>
       </c>
       <c r="G187">
-        <f t="shared" si="5"/>
-        <v>1.5461160000000014</v>
-      </c>
-      <c r="H187">
         <v>31.143999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>14.106622</v>
       </c>
       <c r="B188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4812890000000003</v>
       </c>
       <c r="C188">
         <v>15.492000000000001</v>
       </c>
+      <c r="E188">
+        <v>14.191119</v>
+      </c>
       <c r="F188">
-        <v>14.191119</v>
+        <f t="shared" si="3"/>
+        <v>1.565786000000001</v>
       </c>
       <c r="G188">
-        <f t="shared" si="5"/>
-        <v>1.565786000000001</v>
-      </c>
-      <c r="H188">
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>14.140305</v>
       </c>
       <c r="B189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5149720000000002</v>
       </c>
       <c r="C189">
         <v>33.683</v>
       </c>
+      <c r="E189">
+        <v>14.204364</v>
+      </c>
       <c r="F189">
-        <v>14.204364</v>
+        <f t="shared" si="3"/>
+        <v>1.5790310000000005</v>
       </c>
       <c r="G189">
-        <f t="shared" si="5"/>
-        <v>1.5790310000000005</v>
-      </c>
-      <c r="H189">
         <v>13.244</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14.171449000000001</v>
       </c>
       <c r="B190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5461160000000014</v>
       </c>
       <c r="C190">
         <v>31.143999999999998</v>
       </c>
+      <c r="E190">
+        <v>14.218575</v>
+      </c>
       <c r="F190">
-        <v>14.218575</v>
+        <f t="shared" si="3"/>
+        <v>1.593242</v>
       </c>
       <c r="G190">
-        <f t="shared" si="5"/>
-        <v>1.593242</v>
-      </c>
-      <c r="H190">
         <v>14.212</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>14.191119</v>
       </c>
       <c r="B191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.565786000000001</v>
       </c>
       <c r="C191">
         <v>19.670000000000002</v>
       </c>
+      <c r="E191">
+        <v>14.232716999999999</v>
+      </c>
       <c r="F191">
-        <v>14.232716999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.6073839999999997</v>
       </c>
       <c r="G191">
-        <f t="shared" si="5"/>
-        <v>1.6073839999999997</v>
-      </c>
-      <c r="H191">
         <v>14.141999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>14.204364</v>
       </c>
       <c r="B192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5790310000000005</v>
       </c>
       <c r="C192">
         <v>13.244</v>
       </c>
+      <c r="E192">
+        <v>14.246282000000001</v>
+      </c>
       <c r="F192">
-        <v>14.246282000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.6209490000000013</v>
       </c>
       <c r="G192">
-        <f t="shared" si="5"/>
-        <v>1.6209490000000013</v>
-      </c>
-      <c r="H192">
         <v>13.564</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>14.218575</v>
       </c>
       <c r="B193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.593242</v>
       </c>
       <c r="C193">
         <v>14.212</v>
       </c>
+      <c r="E193">
+        <v>14.260622</v>
+      </c>
       <c r="F193">
-        <v>14.260622</v>
+        <f t="shared" si="3"/>
+        <v>1.6352890000000002</v>
       </c>
       <c r="G193">
-        <f t="shared" si="5"/>
-        <v>1.6352890000000002</v>
-      </c>
-      <c r="H193">
         <v>14.34</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14.232716999999999</v>
       </c>
       <c r="B194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.6073839999999997</v>
       </c>
       <c r="C194">
         <v>14.141999999999999</v>
       </c>
+      <c r="E194">
+        <v>14.276814999999999</v>
+      </c>
       <c r="F194">
-        <v>14.276814999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.6514819999999997</v>
       </c>
       <c r="G194">
-        <f t="shared" si="5"/>
-        <v>1.6514819999999997</v>
-      </c>
-      <c r="H194">
         <v>16.193999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>14.246282000000001</v>
       </c>
       <c r="B195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.6209490000000013</v>
       </c>
       <c r="C195">
         <v>13.564</v>
       </c>
+      <c r="E195">
+        <v>14.291999000000001</v>
+      </c>
       <c r="F195">
-        <v>14.291999000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.6666660000000011</v>
       </c>
       <c r="G195">
-        <f t="shared" si="5"/>
-        <v>1.6666660000000011</v>
-      </c>
-      <c r="H195">
         <v>15.183</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14.260622</v>
       </c>
       <c r="B196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.6352890000000002</v>
       </c>
       <c r="C196">
         <v>14.34</v>
       </c>
+      <c r="E196">
+        <v>14.317218</v>
+      </c>
       <c r="F196">
-        <v>14.317218</v>
+        <f t="shared" si="3"/>
+        <v>1.691885000000001</v>
       </c>
       <c r="G196">
-        <f t="shared" si="5"/>
-        <v>1.691885000000001</v>
-      </c>
-      <c r="H196">
         <v>25.219000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14.276814999999999</v>
       </c>
       <c r="B197">
-        <f t="shared" ref="B197:B239" si="6">A197-$D$3</f>
+        <f t="shared" ref="B197:B239" si="4">A197-$D$3</f>
         <v>1.6514819999999997</v>
       </c>
       <c r="C197">
         <v>16.193999999999999</v>
       </c>
+      <c r="E197">
+        <v>14.33924</v>
+      </c>
       <c r="F197">
-        <v>14.33924</v>
+        <f t="shared" ref="F197:F235" si="5">E197-$D$3</f>
+        <v>1.7139070000000007</v>
       </c>
       <c r="G197">
-        <f t="shared" ref="G197:G235" si="7">F197-$D$3</f>
-        <v>1.7139070000000007</v>
-      </c>
-      <c r="H197">
         <v>22.021999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>14.291999000000001</v>
       </c>
       <c r="B198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.6666660000000011</v>
       </c>
       <c r="C198">
         <v>15.183</v>
       </c>
+      <c r="E198">
+        <v>14.354990000000001</v>
+      </c>
       <c r="F198">
-        <v>14.354990000000001</v>
+        <f t="shared" si="5"/>
+        <v>1.7296570000000013</v>
       </c>
       <c r="G198">
-        <f t="shared" si="7"/>
-        <v>1.7296570000000013</v>
-      </c>
-      <c r="H198">
         <v>15.75</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14.317218</v>
       </c>
       <c r="B199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.691885000000001</v>
       </c>
       <c r="C199">
         <v>25.219000000000001</v>
       </c>
+      <c r="E199">
+        <v>14.368817999999999</v>
+      </c>
       <c r="F199">
-        <v>14.368817999999999</v>
+        <f t="shared" si="5"/>
+        <v>1.7434849999999997</v>
       </c>
       <c r="G199">
-        <f t="shared" si="7"/>
-        <v>1.7434849999999997</v>
-      </c>
-      <c r="H199">
         <v>13.829000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>14.33924</v>
       </c>
       <c r="B200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7139070000000007</v>
       </c>
       <c r="C200">
         <v>22.021999999999998</v>
       </c>
+      <c r="E200">
+        <v>14.390377000000001</v>
+      </c>
       <c r="F200">
-        <v>14.390377000000001</v>
+        <f t="shared" si="5"/>
+        <v>1.7650440000000014</v>
       </c>
       <c r="G200">
-        <f t="shared" si="7"/>
-        <v>1.7650440000000014</v>
-      </c>
-      <c r="H200">
         <v>21.559000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>14.354990000000001</v>
       </c>
       <c r="B201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7296570000000013</v>
       </c>
       <c r="C201">
         <v>15.75</v>
       </c>
+      <c r="E201">
+        <v>14.426523</v>
+      </c>
       <c r="F201">
-        <v>14.426523</v>
+        <f t="shared" si="5"/>
+        <v>1.8011900000000001</v>
       </c>
       <c r="G201">
-        <f t="shared" si="7"/>
-        <v>1.8011900000000001</v>
-      </c>
-      <c r="H201">
         <v>36.146000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14.368817999999999</v>
       </c>
       <c r="B202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7434849999999997</v>
       </c>
       <c r="C202">
         <v>13.829000000000001</v>
       </c>
+      <c r="E202">
+        <v>14.447236999999999</v>
+      </c>
       <c r="F202">
-        <v>14.447236999999999</v>
+        <f t="shared" si="5"/>
+        <v>1.821904</v>
       </c>
       <c r="G202">
-        <f t="shared" si="7"/>
-        <v>1.821904</v>
-      </c>
-      <c r="H202">
         <v>20.713999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>14.390377000000001</v>
       </c>
       <c r="B203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.7650440000000014</v>
       </c>
       <c r="C203">
         <v>21.559000000000001</v>
       </c>
+      <c r="E203">
+        <v>14.46242</v>
+      </c>
       <c r="F203">
-        <v>14.46242</v>
+        <f t="shared" si="5"/>
+        <v>1.8370870000000004</v>
       </c>
       <c r="G203">
-        <f t="shared" si="7"/>
-        <v>1.8370870000000004</v>
-      </c>
-      <c r="H203">
         <v>15.183</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14.426523</v>
       </c>
       <c r="B204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.8011900000000001</v>
       </c>
       <c r="C204">
         <v>36.146000000000001</v>
       </c>
+      <c r="E204">
+        <v>14.490773000000001</v>
+      </c>
       <c r="F204">
-        <v>14.490773000000001</v>
+        <f t="shared" si="5"/>
+        <v>1.8654400000000013</v>
       </c>
       <c r="G204">
-        <f t="shared" si="7"/>
-        <v>1.8654400000000013</v>
-      </c>
-      <c r="H204">
         <v>28.353000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>14.447236999999999</v>
       </c>
       <c r="B205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.821904</v>
       </c>
       <c r="C205">
         <v>20.713999999999999</v>
       </c>
+      <c r="E205">
+        <v>14.510521000000001</v>
+      </c>
       <c r="F205">
-        <v>14.510521000000001</v>
+        <f t="shared" si="5"/>
+        <v>1.8851880000000012</v>
       </c>
       <c r="G205">
-        <f t="shared" si="7"/>
-        <v>1.8851880000000012</v>
-      </c>
-      <c r="H205">
         <v>19.748000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14.46242</v>
       </c>
       <c r="B206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.8370870000000004</v>
       </c>
       <c r="C206">
         <v>15.183</v>
       </c>
+      <c r="E206">
+        <v>14.541141</v>
+      </c>
       <c r="F206">
-        <v>14.541141</v>
+        <f t="shared" si="5"/>
+        <v>1.9158080000000002</v>
       </c>
       <c r="G206">
-        <f t="shared" si="7"/>
-        <v>1.9158080000000002</v>
-      </c>
-      <c r="H206">
         <v>30.619</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14.490773000000001</v>
       </c>
       <c r="B207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.8654400000000013</v>
       </c>
       <c r="C207">
         <v>28.353000000000002</v>
       </c>
+      <c r="E207">
+        <v>14.581007</v>
+      </c>
       <c r="F207">
-        <v>14.581007</v>
+        <f t="shared" si="5"/>
+        <v>1.9556740000000001</v>
       </c>
       <c r="G207">
-        <f t="shared" si="7"/>
-        <v>1.9556740000000001</v>
-      </c>
-      <c r="H207">
         <v>39.866999999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14.510521000000001</v>
       </c>
       <c r="B208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.8851880000000012</v>
       </c>
       <c r="C208">
         <v>19.748000000000001</v>
       </c>
+      <c r="E208">
+        <v>14.61065</v>
+      </c>
       <c r="F208">
-        <v>14.61065</v>
+        <f t="shared" si="5"/>
+        <v>1.9853170000000002</v>
       </c>
       <c r="G208">
-        <f t="shared" si="7"/>
-        <v>1.9853170000000002</v>
-      </c>
-      <c r="H208">
         <v>29.641999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14.525707000000001</v>
       </c>
       <c r="B209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9003740000000011</v>
       </c>
       <c r="C209">
         <v>15.185</v>
       </c>
+      <c r="E209">
+        <v>14.645891000000001</v>
+      </c>
       <c r="F209">
-        <v>14.645891000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.0205580000000012</v>
       </c>
       <c r="G209">
-        <f t="shared" si="7"/>
-        <v>2.0205580000000012</v>
-      </c>
-      <c r="H209">
         <v>35.241999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>14.581007</v>
       </c>
       <c r="B210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9556740000000001</v>
       </c>
       <c r="C210">
         <v>55.301000000000002</v>
       </c>
+      <c r="E210">
+        <v>14.666855</v>
+      </c>
       <c r="F210">
-        <v>14.666855</v>
+        <f t="shared" si="5"/>
+        <v>2.0415220000000005</v>
       </c>
       <c r="G210">
-        <f t="shared" si="7"/>
-        <v>2.0415220000000005</v>
-      </c>
-      <c r="H210">
         <v>20.963000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>14.61065</v>
       </c>
       <c r="B211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9853170000000002</v>
       </c>
       <c r="C211">
         <v>29.641999999999999</v>
       </c>
+      <c r="E211">
+        <v>14.683923</v>
+      </c>
       <c r="F211">
-        <v>14.683923</v>
+        <f t="shared" si="5"/>
+        <v>2.0585900000000006</v>
       </c>
       <c r="G211">
-        <f t="shared" si="7"/>
-        <v>2.0585900000000006</v>
-      </c>
-      <c r="H211">
         <v>17.068999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14.645891000000001</v>
       </c>
       <c r="B212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0205580000000012</v>
       </c>
       <c r="C212">
         <v>35.241999999999997</v>
       </c>
+      <c r="E212">
+        <v>14.710426999999999</v>
+      </c>
       <c r="F212">
-        <v>14.710426999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.0850939999999998</v>
       </c>
       <c r="G212">
-        <f t="shared" si="7"/>
-        <v>2.0850939999999998</v>
-      </c>
-      <c r="H212">
         <v>26.503</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>14.666855</v>
       </c>
       <c r="B213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0415220000000005</v>
       </c>
       <c r="C213">
         <v>20.963000000000001</v>
       </c>
+      <c r="E213">
+        <v>14.730755</v>
+      </c>
       <c r="F213">
-        <v>14.730755</v>
+        <f t="shared" si="5"/>
+        <v>2.1054220000000008</v>
       </c>
       <c r="G213">
-        <f t="shared" si="7"/>
-        <v>2.1054220000000008</v>
-      </c>
-      <c r="H213">
         <v>20.327999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14.683923</v>
       </c>
       <c r="B214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0585900000000006</v>
       </c>
       <c r="C214">
         <v>17.068999999999999</v>
       </c>
+      <c r="E214">
+        <v>14.746045000000001</v>
+      </c>
       <c r="F214">
-        <v>14.746045000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.120712000000001</v>
       </c>
       <c r="G214">
-        <f t="shared" si="7"/>
-        <v>2.120712000000001</v>
-      </c>
-      <c r="H214">
         <v>15.29</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>14.710426999999999</v>
       </c>
       <c r="B215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0850939999999998</v>
       </c>
       <c r="C215">
         <v>26.503</v>
       </c>
+      <c r="E215">
+        <v>14.760031</v>
+      </c>
       <c r="F215">
-        <v>14.760031</v>
+        <f t="shared" si="5"/>
+        <v>2.1346980000000002</v>
       </c>
       <c r="G215">
-        <f t="shared" si="7"/>
-        <v>2.1346980000000002</v>
-      </c>
-      <c r="H215">
         <v>13.987</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14.730755</v>
       </c>
       <c r="B216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.1054220000000008</v>
       </c>
       <c r="C216">
         <v>20.327999999999999</v>
       </c>
+      <c r="E216">
+        <v>14.775726000000001</v>
+      </c>
       <c r="F216">
-        <v>14.775726000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.1503930000000011</v>
       </c>
       <c r="G216">
-        <f t="shared" si="7"/>
-        <v>2.1503930000000011</v>
-      </c>
-      <c r="H216">
         <v>15.694000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14.746045000000001</v>
       </c>
       <c r="B217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.120712000000001</v>
       </c>
       <c r="C217">
         <v>15.29</v>
       </c>
+      <c r="E217">
+        <v>14.790564</v>
+      </c>
       <c r="F217">
-        <v>14.790564</v>
+        <f t="shared" si="5"/>
+        <v>2.1652310000000003</v>
       </c>
       <c r="G217">
-        <f t="shared" si="7"/>
-        <v>2.1652310000000003</v>
-      </c>
-      <c r="H217">
         <v>14.837999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>14.760031</v>
       </c>
       <c r="B218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.1346980000000002</v>
       </c>
       <c r="C218">
         <v>13.987</v>
       </c>
+      <c r="E218">
+        <v>14.820777</v>
+      </c>
       <c r="F218">
-        <v>14.820777</v>
+        <f t="shared" si="5"/>
+        <v>2.1954440000000002</v>
       </c>
       <c r="G218">
-        <f t="shared" si="7"/>
-        <v>2.1954440000000002</v>
-      </c>
-      <c r="H218">
         <v>30.213999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14.775726000000001</v>
       </c>
       <c r="B219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.1503930000000011</v>
       </c>
       <c r="C219">
         <v>15.694000000000001</v>
       </c>
+      <c r="E219">
+        <v>14.838279</v>
+      </c>
       <c r="F219">
-        <v>14.838279</v>
+        <f t="shared" si="5"/>
+        <v>2.2129460000000005</v>
       </c>
       <c r="G219">
-        <f t="shared" si="7"/>
-        <v>2.2129460000000005</v>
-      </c>
-      <c r="H219">
         <v>17.501000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>14.790564</v>
       </c>
       <c r="B220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.1652310000000003</v>
       </c>
       <c r="C220">
         <v>14.837999999999999</v>
       </c>
+      <c r="E220">
+        <v>14.870146999999999</v>
+      </c>
       <c r="F220">
-        <v>14.870146999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.2448139999999999</v>
       </c>
       <c r="G220">
-        <f t="shared" si="7"/>
-        <v>2.2448139999999999</v>
-      </c>
-      <c r="H220">
         <v>31.869</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14.820777</v>
       </c>
       <c r="B221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.1954440000000002</v>
       </c>
       <c r="C221">
         <v>30.213999999999999</v>
       </c>
+      <c r="E221">
+        <v>14.900929</v>
+      </c>
       <c r="F221">
-        <v>14.900929</v>
+        <f t="shared" si="5"/>
+        <v>2.2755960000000002</v>
       </c>
       <c r="G221">
-        <f t="shared" si="7"/>
-        <v>2.2755960000000002</v>
-      </c>
-      <c r="H221">
         <v>30.782</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>14.838279</v>
       </c>
       <c r="B222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.2129460000000005</v>
       </c>
       <c r="C222">
         <v>17.501000000000001</v>
       </c>
+      <c r="E222">
+        <v>14.920685000000001</v>
+      </c>
       <c r="F222">
-        <v>14.920685000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.2953520000000012</v>
       </c>
       <c r="G222">
-        <f t="shared" si="7"/>
-        <v>2.2953520000000012</v>
-      </c>
-      <c r="H222">
         <v>19.754999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14.856118</v>
       </c>
       <c r="B223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.2307850000000009</v>
       </c>
       <c r="C223">
         <v>17.84</v>
       </c>
+      <c r="E223">
+        <v>14.934844999999999</v>
+      </c>
       <c r="F223">
-        <v>14.934844999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.3095119999999998</v>
       </c>
       <c r="G223">
-        <f t="shared" si="7"/>
-        <v>2.3095119999999998</v>
-      </c>
-      <c r="H223">
         <v>14.161</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14.870146999999999</v>
       </c>
       <c r="B224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.2448139999999999</v>
       </c>
       <c r="C224">
         <v>14.029</v>
       </c>
+      <c r="E224">
+        <v>14.966004999999999</v>
+      </c>
       <c r="F224">
-        <v>14.966004999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.3406719999999996</v>
       </c>
       <c r="G224">
-        <f t="shared" si="7"/>
-        <v>2.3406719999999996</v>
-      </c>
-      <c r="H224">
         <v>31.158999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>14.900929</v>
       </c>
       <c r="B225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.2755960000000002</v>
       </c>
       <c r="C225">
         <v>30.782</v>
       </c>
+      <c r="E225">
+        <v>15.010732000000001</v>
+      </c>
       <c r="F225">
-        <v>15.010732000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.3853990000000014</v>
       </c>
       <c r="G225">
-        <f t="shared" si="7"/>
-        <v>2.3853990000000014</v>
-      </c>
-      <c r="H225">
         <v>44.728000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14.920685000000001</v>
       </c>
       <c r="B226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.2953520000000012</v>
       </c>
       <c r="C226">
         <v>19.754999999999999</v>
       </c>
+      <c r="E226">
+        <v>15.030798000000001</v>
+      </c>
       <c r="F226">
-        <v>15.030798000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.4054650000000013</v>
       </c>
       <c r="G226">
-        <f t="shared" si="7"/>
-        <v>2.4054650000000013</v>
-      </c>
-      <c r="H226">
         <v>20.065999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14.934844999999999</v>
       </c>
       <c r="B227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.3095119999999998</v>
       </c>
       <c r="C227">
         <v>14.161</v>
       </c>
+      <c r="E227">
+        <v>15.045892</v>
+      </c>
       <c r="F227">
-        <v>15.045892</v>
+        <f t="shared" si="5"/>
+        <v>2.4205590000000008</v>
       </c>
       <c r="G227">
-        <f t="shared" si="7"/>
-        <v>2.4205590000000008</v>
-      </c>
-      <c r="H227">
         <v>15.093999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>14.966004999999999</v>
       </c>
       <c r="B228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.3406719999999996</v>
       </c>
       <c r="C228">
         <v>31.158999999999999</v>
       </c>
+      <c r="E228">
+        <v>15.059437000000001</v>
+      </c>
       <c r="F228">
-        <v>15.059437000000001</v>
+        <f t="shared" si="5"/>
+        <v>2.4341040000000014</v>
       </c>
       <c r="G228">
-        <f t="shared" si="7"/>
-        <v>2.4341040000000014</v>
-      </c>
-      <c r="H228">
         <v>13.544</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>15.010732000000001</v>
       </c>
       <c r="B229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.3853990000000014</v>
       </c>
       <c r="C229">
         <v>44.728000000000002</v>
       </c>
+      <c r="E229">
+        <v>15.073461</v>
+      </c>
       <c r="F229">
-        <v>15.073461</v>
+        <f t="shared" si="5"/>
+        <v>2.4481280000000005</v>
       </c>
       <c r="G229">
-        <f t="shared" si="7"/>
-        <v>2.4481280000000005</v>
-      </c>
-      <c r="H229">
         <v>14.023999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>15.030798000000001</v>
       </c>
       <c r="B230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.4054650000000013</v>
       </c>
       <c r="C230">
         <v>20.065999999999999</v>
       </c>
+      <c r="E230">
+        <v>15.092836999999999</v>
+      </c>
       <c r="F230">
-        <v>15.092836999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.4675039999999999</v>
       </c>
       <c r="G230">
-        <f t="shared" si="7"/>
-        <v>2.4675039999999999</v>
-      </c>
-      <c r="H230">
         <v>19.376000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>15.045892</v>
       </c>
       <c r="B231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.4205590000000008</v>
       </c>
       <c r="C231">
         <v>15.093999999999999</v>
       </c>
+      <c r="E231">
+        <v>15.135653</v>
+      </c>
       <c r="F231">
-        <v>15.135653</v>
+        <f t="shared" si="5"/>
+        <v>2.5103200000000001</v>
       </c>
       <c r="G231">
-        <f t="shared" si="7"/>
-        <v>2.5103200000000001</v>
-      </c>
-      <c r="H231">
         <v>42.816000000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>15.059437000000001</v>
       </c>
       <c r="B232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.4341040000000014</v>
       </c>
       <c r="C232">
         <v>13.544</v>
       </c>
+      <c r="E232">
+        <v>15.150416999999999</v>
+      </c>
       <c r="F232">
-        <v>15.150416999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.5250839999999997</v>
       </c>
       <c r="G232">
-        <f t="shared" si="7"/>
-        <v>2.5250839999999997</v>
-      </c>
-      <c r="H232">
         <v>14.763999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>15.073461</v>
       </c>
       <c r="B233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.4481280000000005</v>
       </c>
       <c r="C233">
         <v>14.023999999999999</v>
       </c>
+      <c r="E233">
+        <v>15.167021</v>
+      </c>
       <c r="F233">
-        <v>15.167021</v>
+        <f t="shared" si="5"/>
+        <v>2.5416880000000006</v>
       </c>
       <c r="G233">
-        <f t="shared" si="7"/>
-        <v>2.5416880000000006</v>
-      </c>
-      <c r="H233">
         <v>16.603999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>15.092836999999999</v>
       </c>
       <c r="B234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.4675039999999999</v>
       </c>
       <c r="C234">
         <v>19.376000000000001</v>
       </c>
+      <c r="E234">
+        <v>15.190469999999999</v>
+      </c>
       <c r="F234">
-        <v>15.190469999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.565137</v>
       </c>
       <c r="G234">
-        <f t="shared" si="7"/>
-        <v>2.565137</v>
-      </c>
-      <c r="H234">
         <v>23.45</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>15.135653</v>
       </c>
       <c r="B235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.5103200000000001</v>
       </c>
       <c r="C235">
         <v>42.816000000000003</v>
       </c>
+      <c r="E235">
+        <v>15.201497</v>
+      </c>
       <c r="F235">
-        <v>15.201497</v>
+        <f t="shared" si="5"/>
+        <v>2.5761640000000003</v>
       </c>
       <c r="G235">
-        <f t="shared" si="7"/>
-        <v>2.5761640000000003</v>
-      </c>
-      <c r="H235">
         <v>11.026</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>15.150416999999999</v>
       </c>
       <c r="B236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.5250839999999997</v>
       </c>
       <c r="C236">
         <v>14.763999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>15.167021</v>
       </c>
       <c r="B237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.5416880000000006</v>
       </c>
       <c r="C237">
         <v>16.603999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>15.190469999999999</v>
       </c>
       <c r="B238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.565137</v>
       </c>
       <c r="C238">
         <v>23.45</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15.201497</v>
       </c>
       <c r="B239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.5761640000000003</v>
       </c>
       <c r="C239">
@@ -10031,6 +10070,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>